--- a/data/hotels_by_city/Dallas/Dallas_shard_345.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_345.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="350">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Reyna F</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Brent N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r563973515-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>SuperKatie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r552356005-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>I stayed here one night.  The location is convenient, just off I35W, and near many restaurants.  As others have mentioned, this place has been remodeled.  The mattress seemed brand new and was comfortable.  Bath amenities were Bath &amp; Body Works brand.  The breakfast offered a variety of options - pancakes, muffins, yogurt, fruit, eggs, biscuits, gravy, bacon, coffee, juice, etc.  The eggs were clearly microwaved from frozen, but they were still edible unlike some of the things I've encountered at other similarly-priced chain hotels.  The A/C and heating unit was not too loud and didn't bother me during the night.  I spent a quiet night and slept well, although I noticed in the morning that I could clearly hear people talking as they went up and down the hallway.  Ask for a room at the end of the hall if you're a light sleeper.This hotel does quite well for a quick overnight stay at a fairly low price-point.  Thanks!More</t>
   </si>
   <si>
+    <t>Raizy4u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r532032429-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>jmoonesq</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r530567124-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>Stayed one night for work. Easy commute from DFW (about 45 minute drive).  Plenty of restaurants and stores nearby the hotel.  Only issue I had was it is difficult to see from the road and my Garmin gave a location in front of a nother hotel.  The Holiday Inn is actually hidden behind the la Quinta ??? hotel so look for Jake Street not necessarily the hotel.  Hotel was very clean, front staff was friendly and fast. The hotel colors inside have a kind of funky color vibe that was fun. Room was big, well equipped, internet was fast.  My room looked like it was a fairly recent renovation or was just extremely well maintained.  It was close to the highway, plenty of parking.If I came back to Burleson I'd likely stay here again.  It was a fair price for a nice hotel.More</t>
   </si>
   <si>
+    <t>Dommy2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r379404623-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>Been staying here since the place opened in 2007. Excellent, friendly staff. Nice, spacious rooms. However, the place is getting dated &amp; is about to undergo a needed renovation. I could give it 5 stars, except the ventilation systems in the rooms don't work very well any more. Once it's upgraded, I'm sure it will be top-notch, just as before. Location is excellent if you have business, etc. in south Ft. Worth or west of there. Easy to get to lots of places, &amp; good restaurants w/in minutes. We'll be back!More</t>
   </si>
   <si>
+    <t>Pumppeddler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r372474884-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>Very friendly staff, clean, great coffee and also Keurig in the room now. They frequently upgrade me to a nicer room because I stay there a lot. Several of the desk staff have been there a long time. There is a nice complementary drink and snack time in the afternoon.More</t>
   </si>
   <si>
+    <t>cheermom91</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r363396136-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
     <t>We decided to stop after the races and there were no rooms available close to TMS so we drove to Burleson. This is a nice clean hotel with good prices. The room was big and very clean. Beds are comfortable. The breakfast was good- they have BACON. Yum. The only thing was the indoor pool looked a little green. We just looked at it, didn't bring bathing suits so we didn't swim.Nice and dark rooms- we slept until 10:00 and no light was coming through the dark shade.More</t>
   </si>
   <si>
+    <t>SHORTY60_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r345037456-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -354,6 +381,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>cjnd2002</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r338783273-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -381,6 +411,9 @@
     <t>I am giving this hotel a rating of 5. It was in a convenient location that was just off the highway. The value was good for what we got (breakfast included). Beds and pillows were very comfortable - no complaints!  Our stay was quiet and we would stay there again if ever in the area. More</t>
   </si>
   <si>
+    <t>Jeff R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r333290345-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -411,6 +444,9 @@
     <t>Spent a night here on our way to Galveston, not bad, bed was comfy, rooms was clean.  We arrived after 10 and the night clerk seemed as if she would rather be elsewhere, but check in was quick nevertheless.  The only really down side was the breakfast.  Mind you it's the normal cereals, juices, biscuits &amp; grave with sausage and a pancake machine.  But all were a little off tasting, I've certainly had better in other Holiday Inns.More</t>
   </si>
   <si>
+    <t>travelsinger97</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r313021175-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -438,6 +474,9 @@
     <t>We made an unexpected stop after visiting Dallas on our way to San Antonio. This was a very nice room. The rooms are very large and comfortable. The breakfast is the normal complimentary breakfast you'd get anywhere else. I will say that it was good. There are several restaurants around the hotel to venture out.More</t>
   </si>
   <si>
+    <t>Stanggirl66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r291591038-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -468,6 +507,9 @@
     <t>We made a pit stop here on our way to San Antonio. Was a decent stay. Nice room and your typical breakfast to get ya goin. Front desk people were very nice and helpful. Overall was a good place to stop after a long day of driving. Fyi: photos that were uploaded and titled 'loud, noisy, and overpriced' were not from this hotel. It was a mistake. More</t>
   </si>
   <si>
+    <t>Chuck S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r289629002-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -486,6 +528,9 @@
     <t>I was greeted by the assistant general, Nancy, with a big smile and a welcoming Hello Sir. She immediately asked how she could assist me. After identifying myself she accessed the computer and determined that there was a problem with the reservation. My company had booked the room for the wrong night and had failed to send a credit card authorization. With a positive determination, she said she would help me. Very shortly thereafter, the issue was resolved to my satisfaction, thanks to Nancy's efforts. Her customer service skills are excellent, and Holiday Inn is well served by holding her up as an example to other employees.More</t>
   </si>
   <si>
+    <t>MommyOfTwo88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r266392086-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -513,6 +558,9 @@
     <t>Let me just say how absolutely perfect this hotel is. It is right off of 35w behind Cracker Barrel, so very simple to find. My husband was able to check us in within 10 minutes and we then went to our room. Wow! The ceilings are so high and we love the size of this room. 2 queens, comes with a sitting area too. Everything was super clean. Front desk agent was smiling and the pool and spa were very very nice .. Not busy for a Friday night too. If we travel through ft worth again, we will definitely stop here. My daughter's loved the pool. Now time to enjoy the zoo!More</t>
   </si>
   <si>
+    <t>Melissa W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r260520904-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -540,6 +588,9 @@
     <t>My husband and I were staying in Burleson for a funeral and this hotel was excellent.  I have nothing negative to say at all.  The room was very spacious, clean and accomodating.  The staff was friendly and helpful.  The free "hot" breakfast was delicious, well prepared and presented.  The room included free wifi.  The location was great also being right off the interstate and visible from the interstate, with several good restaurants within walking distance.  There were also many stores and shopping close by if you needed anything.  I would most definitely stay here again!More</t>
   </si>
   <si>
+    <t>Phaserblazer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r250969012-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -567,6 +618,9 @@
     <t>This was the third time I had stayed in this hotel but this time I had taken my wife with me. As usual the hotel was well run, the room was clean and the staff we had to deal with were all very helpful. As a bonus the hotel lays on a glass of wine or a beer along with a bowl of chilly or similar in the evenings if you feel like it when you come in from work. The hotel has a good number is shops and restaurants in the very near vicinity so there are things to do there if you like. More</t>
   </si>
   <si>
+    <t>Leslee49</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r246529179-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -585,6 +639,9 @@
     <t>Getting to it can be a challenge, but worth it. You see it from the freeway but odd how one gets to it. Very clean. Lots of restaurants and stores in the vicinity. Breakfast was typical Holiday Inn Express - nothing sensational. The attendant kept everything filled. The biggest problem with HIE is that the English muffins, bagels, etc. are never fresh. They've been frozen for some time and crumble. This seems constant throughout its system. We would stay here again.More</t>
   </si>
   <si>
+    <t>Mitch M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r236364830-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -606,6 +663,9 @@
     <t>We stayed one night after a party in the area.  The hotel has easy on and off access off I-35.  There are numerous restaurants nearby; we commonly refer to it as restaurant row.It was a newer looking clean property with plenty of free parking.  The desk staff was efficient and friendly.  The room was clean and well laid out with a refrigerator, microwave and coffeepot.  It did not appear to be very crowded so it was very quiet.The complimentary breakfast was very disappointing.  The scrambled eggs were flavorless, the biscuits were hard, the gravy had a strange taste and the turkey sausage was cold and just tasted bad.  The attendant kept everything replaced and was constantly checking and replacing the items so it wasn’t an issue with them getting old.  It must be a quality issue with the ingredients. There is a Cracker Barrel across the street that would be a much better option for breakfast.More</t>
   </si>
   <si>
+    <t>bruce120</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r222923580-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -633,6 +693,9 @@
     <t>Holiday Inn Express in Burleson is always a nice place to stay when we travel to the Fort Worth area.  The staff is always very helpful.  The rooms are always clean and fresh and their breakfast is always fresh.  Good coffee.  The other hotels in the area are good too. But we always prefer the quieter, friendly atmosphere here.  We will be back!  Thank you.More</t>
   </si>
   <si>
+    <t>Janette W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r195998064-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -705,6 +768,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>ksmee33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r180836362-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -729,6 +795,9 @@
     <t>Good things: great location, near Hugely Hospital, which was important. Was able to get a discounted rate connected with hospital visit. Very clean. Evening social hour wasvery nice, staff helpful.Not so good:Were not able to get into our room until after 4 PM, and traveled with a very tired senior who needed to rest before heading to hospital. What I really didn't like: we specifically said no smoking that it was very important to us. Apparently 3rd floor of hotel is a smoking floor and even getting off elevator the smell hit us. And it continued into our room, and smelled the whole time. Desk told us it was because rooms around us were smoking rooms. And we couldn't get another room. Yuk.More</t>
   </si>
   <si>
+    <t>Vista_Sultans</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r173422208-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -747,6 +816,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Maher B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r159640746-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -765,6 +837,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Koalaty47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r155026410-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -783,6 +858,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Mick S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r153433066-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -810,6 +888,9 @@
     <t>The holiday inn express at Burleson offers an excellent level of accomodation at reasonable prices.The staff are extremely pleasant, helpful without being overbearing and present themselves in a relaxed but very professional manner.The breakfasts are complimentary and whilst offering a limited choice the standard is very acceptable and fits the bill for business travellers.Access to the highway couldnt be easier and there are a wide range of eateries all within walking distance without the issue of crossing too many roads.All in all an excellent place to stay if you are viviting the Fort Worth area on business.More</t>
   </si>
   <si>
+    <t>txfrmgrl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r151117765-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -831,6 +912,9 @@
     <t>We stayed on a Friday night for a meeting in Ft. Worth the next morning. It was a short night due to screaming teens in the hall, running up and down the hall, slamming doors.  It started about the time we went to bed...9:00 PM.  I should have called the desk in a split second but waited hoping they would settle down.  There was running and floor pounding above us, also. I called the desk at 10:15 to report and she said she would do something about it.  I had to call back ANOTHER time about 11:30 PM.  The lady at the desk said, "Yes, I am watching them on camera... they are now running downstairs to get ice cream."  (Oh geeze.)  My husband finally opened the door and yelled at them to get in their rooms and go  to bed that there are people  trying to sleep.  Yeah, I am sure we were called the old trolls next door.    Next morning while checking out, I told the man we really had a bad night, recalled the events and that we need to talk about the bill.  He said, "I have no authority".    That afternoon, the day manager called us and ended up knocking $15 dollars off bill.  Not sure that was enough.  Let's see.... That's $5 an hour during all the disturbance!  Not even minimum wage!!    :)     We will stay there again since it is a nice property but...We stayed on a Friday night for a meeting in Ft. Worth the next morning. It was a short night due to screaming teens in the hall, running up and down the hall, slamming doors.  It started about the time we went to bed...9:00 PM.  I should have called the desk in a split second but waited hoping they would settle down.  There was running and floor pounding above us, also. I called the desk at 10:15 to report and she said she would do something about it.  I had to call back ANOTHER time about 11:30 PM.  The lady at the desk said, "Yes, I am watching them on camera... they are now running downstairs to get ice cream."  (Oh geeze.)  My husband finally opened the door and yelled at them to get in their rooms and go  to bed that there are people  trying to sleep.  Yeah, I am sure we were called the old trolls next door.    Next morning while checking out, I told the man we really had a bad night, recalled the events and that we need to talk about the bill.  He said, "I have no authority".    That afternoon, the day manager called us and ended up knocking $15 dollars off bill.  Not sure that was enough.  Let's see.... That's $5 an hour during all the disturbance!  Not even minimum wage!!    :)     We will stay there again since it is a nice property but will first check about tournaments in the area.More</t>
   </si>
   <si>
+    <t>VWO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r145927229-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -855,6 +939,9 @@
     <t>Rooms are very small, pool is not heated. Drawers on dresser would not stay closed. Would/ will not stay again.  Very disappointing comparing to pictures on website.  Not good price for accommodations......More</t>
   </si>
   <si>
+    <t>RobNMX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r141436553-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -882,6 +969,9 @@
     <t>Our family was together for a funeral earlier this month, and we all stayed at the Holiday Inn Express in Burleson.  I must say that the staff was exceptional.  Extremely friendly, greeted us each time we passed by the front door, expressed their sympathy for our loss, then smiled and made us feel totally at home.  Our group ranged in age from 4-89 years old, and we were all perfectly comfortable.  The location is convenient for anything on the southwest side of Ft. Worth, and having dinner at the near-by Mexican Inn was an added treat.More</t>
   </si>
   <si>
+    <t>scubacher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r135626457-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -900,6 +990,9 @@
     <t>I've never stayed with Holiday Inn before.  I can't say enough great things about this hotel!  Clean, neat, organized and well maintained.  There are so many extra perks and touches that make travelling more comfortable.  My room was ultra clean and the bed super comfortable.  The bathroom was clean and the shower worked great.  It had free wifi, a small refrigerator, microwave, and coffee pot.  They sold various microwavable items in the lobby.  Freebies included snacks in the evening and an awersome breakfast in the morning, Local &amp; USA Today newspapers.  In the evening, they served wine, beer, sodas, cheese and crackers and other appetizers.  It was a lovely touch.  Breakfast included scrambled eggs, bacon, biscuits and gravey, pancakes, hot cinnamon rolls, various pastries, oatmeal, cereal, fresh fruit, juice FRESH coffee that actually tastes good and many other items.  I usually don't eat at hotels that serve a free breakfast because they are usually horrible but this one was clean, fresh and great!  Again, I can't say enough good things about this hotel.  I now have a place that I know will be wonderful to stay while traveling no matter what city I am staying in.  CLEAN, CLEAN, CLEAN!  Friendly staff as well.More</t>
   </si>
   <si>
+    <t>JJ S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r124429993-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1020,9 @@
     <t>The first thing I noticed when checking into this hotel was the airport directly behind it, which sort of concerned me at first; but I was pleasantly surprised when all air traffic subsided by 8 pm- or I slept so well that I didn't even notice it... As I sat out in parking lot between all four hotels at this intersection, I Googled the location and read some reviews; Holiday Inn Express was the best &amp; said that the staff "made them feel like a part of the family."  So I put them to the test and upon checkin I met a wonderful clerk whose smile lit up the foyer and she quickly checked me in at a reasonable rate, as she could tell I was tired.  The bed was comfortable and choice of pillows was nice.  Secure wireless access was good (I've been hacked on unsecure networks before).  The free happy hour from 5-7pm was nice with tamales and beverages before dinner and the breakfast was quite a spread the next morning.  The fitness center was small, but had three cardio machines and dumbbell weights for using along with a decently-sized indoor pool.  Overall pleasant experience in the middle of a hectic business trip; I will be staying here again.More</t>
   </si>
   <si>
+    <t>US9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r123850934-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -946,6 +1042,9 @@
   </si>
   <si>
     <t>1st time we stayed at a HI - Express; we usually stay @ Sheraton, Westin, Double Tree type places. Clean, comfortable, friendly, inexpensive, big room with sleeper sofa! Near restaurants, not too far from DT Ft Worth!More</t>
+  </si>
+  <si>
+    <t>Robin P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r118432047-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
@@ -1471,43 +1570,47 @@
       <c r="A2" t="n">
         <v>54323</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155030</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1525,50 +1628,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54323</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155031</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1586,50 +1693,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54323</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155032</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -1649,50 +1760,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54323</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155033</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1712,50 +1827,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>54323</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155034</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1773,50 +1892,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>54323</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155035</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1832,56 +1955,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>54323</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>155036</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="K8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>85</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1899,56 +2026,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="X8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54323</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155037</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1966,56 +2097,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54323</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155038</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2029,50 +2164,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>54323</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>155039</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2084,56 +2223,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>54323</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>15230</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2151,56 +2294,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="X12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>54323</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155040</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2216,56 +2363,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="X13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>54323</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155041</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2277,56 +2428,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>54323</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>19274</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2338,56 +2493,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="X15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>54323</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>155042</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="O16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2399,56 +2558,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="X16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>54323</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>6514</v>
+      </c>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2466,56 +2629,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="X17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>54323</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>155043</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2527,47 +2694,51 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>54323</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155044</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
@@ -2594,56 +2765,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="X19" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>54323</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>63838</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="O20" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2661,56 +2836,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="X20" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>54323</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>155045</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="J21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="O21" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -2726,56 +2905,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="X21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="Y21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>54323</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>11327</v>
+      </c>
+      <c r="C22" t="s">
+        <v>225</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2797,56 +2980,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="X22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>54323</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155044</v>
+      </c>
+      <c r="C23" t="s">
+        <v>215</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="J23" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="K23" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -2868,13 +3055,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="X23" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="Y23" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24">
@@ -2887,37 +3074,37 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="J24" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="K24" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="O24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -2941,50 +3128,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>54323</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155046</v>
+      </c>
+      <c r="C25" t="s">
+        <v>250</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="O25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3006,56 +3197,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="X25" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="Y25" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>54323</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155047</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="K26" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="O26" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3079,50 +3274,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>54323</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>155048</v>
+      </c>
+      <c r="C27" t="s">
+        <v>266</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3146,50 +3345,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>54323</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155049</v>
+      </c>
+      <c r="C28" t="s">
+        <v>273</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="J28" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="K28" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="L28" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="O28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3213,50 +3416,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>54323</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155050</v>
+      </c>
+      <c r="C29" t="s">
+        <v>280</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="J29" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="K29" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="L29" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3278,56 +3485,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="X29" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Y29" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>54323</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>155051</v>
+      </c>
+      <c r="C30" t="s">
+        <v>290</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="J30" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="K30" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O30" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
@@ -3349,47 +3560,51 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="X30" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Y30" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>54323</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>155052</v>
+      </c>
+      <c r="C31" t="s">
+        <v>298</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="J31" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="K31" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="L31" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
@@ -3416,56 +3631,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="X31" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="Y31" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>54323</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>155053</v>
+      </c>
+      <c r="C32" t="s">
+        <v>307</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="J32" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="K32" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="O32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3487,56 +3706,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="X32" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="Y32" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>54323</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>155054</v>
+      </c>
+      <c r="C33" t="s">
+        <v>317</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="J33" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="K33" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="L33" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3558,56 +3781,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="X33" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="Y33" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>54323</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>155055</v>
+      </c>
+      <c r="C34" t="s">
+        <v>324</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="J34" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="K34" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="L34" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3629,56 +3856,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="X34" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="Y34" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>54323</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>10317</v>
+      </c>
+      <c r="C35" t="s">
+        <v>334</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="J35" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K35" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="L35" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="O35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3700,56 +3931,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="Y35" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>54323</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>90279</v>
+      </c>
+      <c r="C36" t="s">
+        <v>342</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="J36" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="K36" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="L36" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3771,13 +4006,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="X36" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Y36" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_345.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_345.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="613">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,33 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Reyna F</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r603606272-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>55557</t>
+  </si>
+  <si>
+    <t>631347</t>
+  </si>
+  <si>
+    <t>603606272</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a good place for a weekend stay for my family. The rooms were clean and reasonably priced. I enjoyed what little time I spent with the hotel staff. As far as location, it's easy to get to and close to many dining options. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r572473395-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
-    <t>55557</t>
-  </si>
-  <si>
-    <t>631347</t>
-  </si>
-  <si>
     <t>572473395</t>
   </si>
   <si>
@@ -183,9 +195,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Brent N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r563973515-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -204,9 +213,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t>SuperKatie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r552356005-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -228,9 +234,6 @@
     <t>I stayed here one night.  The location is convenient, just off I35W, and near many restaurants.  As others have mentioned, this place has been remodeled.  The mattress seemed brand new and was comfortable.  Bath amenities were Bath &amp; Body Works brand.  The breakfast offered a variety of options - pancakes, muffins, yogurt, fruit, eggs, biscuits, gravy, bacon, coffee, juice, etc.  The eggs were clearly microwaved from frozen, but they were still edible unlike some of the things I've encountered at other similarly-priced chain hotels.  The A/C and heating unit was not too loud and didn't bother me during the night.  I spent a quiet night and slept well, although I noticed in the morning that I could clearly hear people talking as they went up and down the hallway.  Ask for a room at the end of the hall if you're a light sleeper.This hotel does quite well for a quick overnight stay at a fairly low price-point.  Thanks!More</t>
   </si>
   <si>
-    <t>Raizy4u</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r532032429-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -249,9 +252,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>jmoonesq</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r530567124-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -273,7 +273,506 @@
     <t>Stayed one night for work. Easy commute from DFW (about 45 minute drive).  Plenty of restaurants and stores nearby the hotel.  Only issue I had was it is difficult to see from the road and my Garmin gave a location in front of a nother hotel.  The Holiday Inn is actually hidden behind the la Quinta ??? hotel so look for Jake Street not necessarily the hotel.  Hotel was very clean, front staff was friendly and fast. The hotel colors inside have a kind of funky color vibe that was fun. Room was big, well equipped, internet was fast.  My room looked like it was a fairly recent renovation or was just extremely well maintained.  It was close to the highway, plenty of parking.If I came back to Burleson I'd likely stay here again.  It was a fair price for a nice hotel.More</t>
   </si>
   <si>
-    <t>Dommy2013</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r510086372-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>510086372</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>The rooms and staff were excellent</t>
+  </si>
+  <si>
+    <t>The rooms were clean and nice. The staff was friendly and helpful. The free breakfast was excellent and the breakfast attendant was helpful and friendly. My only issue was the pool, it needed to be resurfaced and the hot tub did not function.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>MitziGeneralManager, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded August 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2017</t>
+  </si>
+  <si>
+    <t>The rooms were clean and nice. The staff was friendly and helpful. The free breakfast was excellent and the breakfast attendant was helpful and friendly. My only issue was the pool, it needed to be resurfaced and the hot tub did not function.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r501644855-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>501644855</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>baseball tournament trip</t>
+  </si>
+  <si>
+    <t>The hotel was great for our tournament trip.The recently updated mattresses &amp; pillows are wonderful as we slept the best we had in years. They have coffee maker with excellent coffee, fridge, &amp; small microwave and the room, while not overly large, is very efficiently designed. Only minor complaint is the bathroom is a bit small for more than 2-3 folks. I would not want to try it with 2 adults &amp; 2 kids, but for the price we obtained for the team you could really have another room.The breakfast is quite good with decent variety of items and again coffee is great. Also the staff is very friendly as soon as you walk in the door. The single elevator is a bit slow but, since it was sooo... hot the cool a/c is a godsend. Also many good restaurants &amp; retail mall just around the corner. Cracker Barrel &amp; Outback both within walking distance. Thanks Holiday Inn for your hospitality.MoreShow less</t>
+  </si>
+  <si>
+    <t>MitziGeneralManager, Manager at Holiday Inn Express-Burleson, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was great for our tournament trip.The recently updated mattresses &amp; pillows are wonderful as we slept the best we had in years. They have coffee maker with excellent coffee, fridge, &amp; small microwave and the room, while not overly large, is very efficiently designed. Only minor complaint is the bathroom is a bit small for more than 2-3 folks. I would not want to try it with 2 adults &amp; 2 kids, but for the price we obtained for the team you could really have another room.The breakfast is quite good with decent variety of items and again coffee is great. Also the staff is very friendly as soon as you walk in the door. The single elevator is a bit slow but, since it was sooo... hot the cool a/c is a godsend. Also many good restaurants &amp; retail mall just around the corner. Cracker Barrel &amp; Outback both within walking distance. Thanks Holiday Inn for your hospitality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r492363441-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>492363441</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Decent Choice</t>
+  </si>
+  <si>
+    <t>Stayed here for the third time in the last year while doing some work at MillerCoors.  The room was nice and well furnished. The area has a lot of restaurant choices, shopping options and a movie theater. Ate the free breakfast every morning and was OK although the omelets were not really warm enough. Will probably stay here again when back in town in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express-Burleson, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for the third time in the last year while doing some work at MillerCoors.  The room was nice and well furnished. The area has a lot of restaurant choices, shopping options and a movie theater. Ate the free breakfast every morning and was OK although the omelets were not really warm enough. Will probably stay here again when back in town in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r483887333-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>483887333</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New mattress </t>
+  </si>
+  <si>
+    <t>I was there a week and during my stay they upgraded the mattress. It was great much more comfortable. I also like the new shades from the recent remodeling. There is no curtains and the gap that sometimes occur with those. The remodeling is complete and is very nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>I was there a week and during my stay they upgraded the mattress. It was great much more comfortable. I also like the new shades from the recent remodeling. There is no curtains and the gap that sometimes occur with those. The remodeling is complete and is very nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r465070315-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>465070315</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>2nd stay - Average HI Express</t>
+  </si>
+  <si>
+    <t>Recently renovated, but I found the hotel to be a very average Holiday Inn Express. The staff was OK but I think I will try something else on my next trip. I travel to Burelson about four times per year.MoreShow less</t>
+  </si>
+  <si>
+    <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Recently renovated, but I found the hotel to be a very average Holiday Inn Express. The staff was OK but I think I will try something else on my next trip. I travel to Burelson about four times per year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r455102786-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>455102786</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Not what I expected</t>
+  </si>
+  <si>
+    <t>I booked a room at this hotel with the intention of having a nice romantic weekend trip with my girlfriend. The room itself was nice. It was clean and beds were comfortable. However service at the hotel was lackluster at best. At breakfast coffee ran out and never got refilled. We had issues with one of our key cards to our room as it was not working. When I asked the person at the front about this he said he could fix this card but then the other would not work. In essence according to him no matter what only one card would work so why even bother giving us two? 
+The hotel also advertises an indoor pool and jacuzzi/spa tub. This was one of my main reasons for booking here. Well for starters the jacuzzi was broken and did not work. When I asked management about this again they did not seem to really care about the issue. Okay fine no hot tub at least we can go swimming right? Wrong I have never felt an indoor pool with colder water than this it felt like ice. And to add insult to injury they had cold AC blasting into the area. 
+Do not advertise an amenity that you do not actually care to maintain for your guests!
+In short not a bad place if you just want to spend the night. But do not make my mistake and think...I booked a room at this hotel with the intention of having a nice romantic weekend trip with my girlfriend. The room itself was nice. It was clean and beds were comfortable. However service at the hotel was lackluster at best. At breakfast coffee ran out and never got refilled. We had issues with one of our key cards to our room as it was not working. When I asked the person at the front about this he said he could fix this card but then the other would not work. In essence according to him no matter what only one card would work so why even bother giving us two? The hotel also advertises an indoor pool and jacuzzi/spa tub. This was one of my main reasons for booking here. Well for starters the jacuzzi was broken and did not work. When I asked management about this again they did not seem to really care about the issue. Okay fine no hot tub at least we can go swimming right? Wrong I have never felt an indoor pool with colder water than this it felt like ice. And to add insult to injury they had cold AC blasting into the area. Do not advertise an amenity that you do not actually care to maintain for your guests!In short not a bad place if you just want to spend the night. But do not make my mistake and think this is a good place to stay at for a couples vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express-Burleson, responded to this reviewResponded February 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2017</t>
+  </si>
+  <si>
+    <t>I booked a room at this hotel with the intention of having a nice romantic weekend trip with my girlfriend. The room itself was nice. It was clean and beds were comfortable. However service at the hotel was lackluster at best. At breakfast coffee ran out and never got refilled. We had issues with one of our key cards to our room as it was not working. When I asked the person at the front about this he said he could fix this card but then the other would not work. In essence according to him no matter what only one card would work so why even bother giving us two? 
+The hotel also advertises an indoor pool and jacuzzi/spa tub. This was one of my main reasons for booking here. Well for starters the jacuzzi was broken and did not work. When I asked management about this again they did not seem to really care about the issue. Okay fine no hot tub at least we can go swimming right? Wrong I have never felt an indoor pool with colder water than this it felt like ice. And to add insult to injury they had cold AC blasting into the area. 
+Do not advertise an amenity that you do not actually care to maintain for your guests!
+In short not a bad place if you just want to spend the night. But do not make my mistake and think...I booked a room at this hotel with the intention of having a nice romantic weekend trip with my girlfriend. The room itself was nice. It was clean and beds were comfortable. However service at the hotel was lackluster at best. At breakfast coffee ran out and never got refilled. We had issues with one of our key cards to our room as it was not working. When I asked the person at the front about this he said he could fix this card but then the other would not work. In essence according to him no matter what only one card would work so why even bother giving us two? The hotel also advertises an indoor pool and jacuzzi/spa tub. This was one of my main reasons for booking here. Well for starters the jacuzzi was broken and did not work. When I asked management about this again they did not seem to really care about the issue. Okay fine no hot tub at least we can go swimming right? Wrong I have never felt an indoor pool with colder water than this it felt like ice. And to add insult to injury they had cold AC blasting into the area. Do not advertise an amenity that you do not actually care to maintain for your guests!In short not a bad place if you just want to spend the night. But do not make my mistake and think this is a good place to stay at for a couples vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r448073824-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>448073824</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>Newly remodeled</t>
+  </si>
+  <si>
+    <t>The Express has been remodeled and is very nice. Wish they would still have the large lounge area. Sure they split it in two to make the breakfast buffet more practical. Still typical, not-so-tasty HIE breakfast food. Really miss the manager's happy hour. Very clean. Front desk a bit inattentive. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded January 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2017</t>
+  </si>
+  <si>
+    <t>The Express has been remodeled and is very nice. Wish they would still have the large lounge area. Sure they split it in two to make the breakfast buffet more practical. Still typical, not-so-tasty HIE breakfast food. Really miss the manager's happy hour. Very clean. Front desk a bit inattentive. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r444007128-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>444007128</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>Dissapointed!</t>
+  </si>
+  <si>
+    <t>Stayed here two 5 day stays between 11/27 and 12/9/2016. 1st week went OK except breakfast was not ready on time a couple of mornings. During the 2nd week I was awakened at 2:30 a.m. on Tuesday by loud music and laughing and talking in room next to me (room 312). I fell asleep an hour later and that was that. About 3:00 a.m. Wednesday morning the same thing happened from same room and I called front desk. I explained to person that answered that this had now happened two straight days and that I needed to sleep since I was teaching a class she replied  that she didn't know who that would be in the room next to me. I said maybe it might be the person (s) registered to the room. She seemed unmotivated to do anything about it and I never slept anymore that night since the music and laughing continued for a couple of hours. yhis was a very poor response to a customer complaint as far as I'm concerned.MoreShow less</t>
+  </si>
+  <si>
+    <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here two 5 day stays between 11/27 and 12/9/2016. 1st week went OK except breakfast was not ready on time a couple of mornings. During the 2nd week I was awakened at 2:30 a.m. on Tuesday by loud music and laughing and talking in room next to me (room 312). I fell asleep an hour later and that was that. About 3:00 a.m. Wednesday morning the same thing happened from same room and I called front desk. I explained to person that answered that this had now happened two straight days and that I needed to sleep since I was teaching a class she replied  that she didn't know who that would be in the room next to me. I said maybe it might be the person (s) registered to the room. She seemed unmotivated to do anything about it and I never slept anymore that night since the music and laughing continued for a couple of hours. yhis was a very poor response to a customer complaint as far as I'm concerned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r431439848-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>431439848</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Night and day</t>
+  </si>
+  <si>
+    <t>Stopped here for overnight stay. I seen the hotel was undergoing renovation which wasn't a problem. Minimal clutter normally associated with a remodel. Arrived late in evening and the gentleman working the desk wasn't the normal friendly sort that I have came to expect at holiday inn express.  No welcome ,how you doing, etc.  He didn't acknowledge  reward club member,  didn't offer welcome points or gift bag associated with being a member.  The following morning was a different story the lady at the front desk was very nice and offered to help correct the error from the night before.  Breakfast was hot and good selection of food.  Overall room was good  and once remodel done will be very nice. Worth looking at again if in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Stopped here for overnight stay. I seen the hotel was undergoing renovation which wasn't a problem. Minimal clutter normally associated with a remodel. Arrived late in evening and the gentleman working the desk wasn't the normal friendly sort that I have came to expect at holiday inn express.  No welcome ,how you doing, etc.  He didn't acknowledge  reward club member,  didn't offer welcome points or gift bag associated with being a member.  The following morning was a different story the lady at the front desk was very nice and offered to help correct the error from the night before.  Breakfast was hot and good selection of food.  Overall room was good  and once remodel done will be very nice. Worth looking at again if in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r429372425-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>429372425</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Remodel troubles</t>
+  </si>
+  <si>
+    <t>Hotel is undergoing major remodel.  Room and hotel smelled of plaster dust and wall paper paste.  Had we known about the remodel and how extensive it was we would have booked elsewhere.  Management needs to be up front and let people know what is going on.  Breakfast was watery egg/omelets(?), some meat item resembling sausage patty, and biscuits and gravy.  Staff on duty was friendly, but when asked about local dining places they were at a loss.  Just not a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Hotel is undergoing major remodel.  Room and hotel smelled of plaster dust and wall paper paste.  Had we known about the remodel and how extensive it was we would have booked elsewhere.  Management needs to be up front and let people know what is going on.  Breakfast was watery egg/omelets(?), some meat item resembling sausage patty, and biscuits and gravy.  Staff on duty was friendly, but when asked about local dining places they were at a loss.  Just not a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r428173939-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>428173939</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>This hotel is undergoing a remodel and it is coming along nicely. The staff is very helpful and friendly. Breakfast was different considering that is the area they are currently working on. The gym was closed due to the construction so we missed that but over all a nice stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is undergoing a remodel and it is coming along nicely. The staff is very helpful and friendly. Breakfast was different considering that is the area they are currently working on. The gym was closed due to the construction so we missed that but over all a nice stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r425902399-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>425902399</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Call first and ask if renovation is complete</t>
+  </si>
+  <si>
+    <t>We booked thinking we were going to get a great hotel at a great price and even paid in advance (that was a mistake!). This hotel is in such disarray I wanted my money back and wanted to go somewhere else, but you cannot do that with a prepaid reservation per the cancellation policy. The place had no pool or fitness room available, elevator was not working when we arrived so we had to wait hours to be able to get up to our room with suitcases. We ended up having the workmen help us carry up the suitcases because after waiting for 4 hours we wanted to get into our room. The lobby and breakfast room are being drywalled and plaster dust is floating everywhere. The kitchen staff was very pleasant and apologized profusely but could not change the situation. 
+The windows in our room were filthy with handprints and smears. The air conditioner was filthy as well. Patch holes in the wall, shower tile was still mildewed and yet this was a "renovated" room. Electrical plug in and USB port on left side of bed did not work. Hair dryer was never installed again. No washers or dryers available to us. We reported everything to the OWNER of the place who identified himself as the maintenance person and nothing improved. General Manager was told as well of the problems and she apologized but was unable to do anything...We booked thinking we were going to get a great hotel at a great price and even paid in advance (that was a mistake!). This hotel is in such disarray I wanted my money back and wanted to go somewhere else, but you cannot do that with a prepaid reservation per the cancellation policy. The place had no pool or fitness room available, elevator was not working when we arrived so we had to wait hours to be able to get up to our room with suitcases. We ended up having the workmen help us carry up the suitcases because after waiting for 4 hours we wanted to get into our room. The lobby and breakfast room are being drywalled and plaster dust is floating everywhere. The kitchen staff was very pleasant and apologized profusely but could not change the situation. The windows in our room were filthy with handprints and smears. The air conditioner was filthy as well. Patch holes in the wall, shower tile was still mildewed and yet this was a "renovated" room. Electrical plug in and USB port on left side of bed did not work. Hair dryer was never installed again. No washers or dryers available to us. We reported everything to the OWNER of the place who identified himself as the maintenance person and nothing improved. General Manager was told as well of the problems and she apologized but was unable to do anything to fix the problems, Exterior of the hotel looked like a tornado came through with dumpsters overflowing with garbage, furniture boxes and trailers of work supplies for the workmen. The workmen were everywhere and did wake us up in the morning although they tried not to but they were working right down the hall. I am not happy at all with the fact that we were not informed of the renovations until arrival at the hotel, we were not told the pool and hot tub would be useless and we were not told that we would pay full price for a hotel that would not even come close to meeting expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2016</t>
+  </si>
+  <si>
+    <t>We booked thinking we were going to get a great hotel at a great price and even paid in advance (that was a mistake!). This hotel is in such disarray I wanted my money back and wanted to go somewhere else, but you cannot do that with a prepaid reservation per the cancellation policy. The place had no pool or fitness room available, elevator was not working when we arrived so we had to wait hours to be able to get up to our room with suitcases. We ended up having the workmen help us carry up the suitcases because after waiting for 4 hours we wanted to get into our room. The lobby and breakfast room are being drywalled and plaster dust is floating everywhere. The kitchen staff was very pleasant and apologized profusely but could not change the situation. 
+The windows in our room were filthy with handprints and smears. The air conditioner was filthy as well. Patch holes in the wall, shower tile was still mildewed and yet this was a "renovated" room. Electrical plug in and USB port on left side of bed did not work. Hair dryer was never installed again. No washers or dryers available to us. We reported everything to the OWNER of the place who identified himself as the maintenance person and nothing improved. General Manager was told as well of the problems and she apologized but was unable to do anything...We booked thinking we were going to get a great hotel at a great price and even paid in advance (that was a mistake!). This hotel is in such disarray I wanted my money back and wanted to go somewhere else, but you cannot do that with a prepaid reservation per the cancellation policy. The place had no pool or fitness room available, elevator was not working when we arrived so we had to wait hours to be able to get up to our room with suitcases. We ended up having the workmen help us carry up the suitcases because after waiting for 4 hours we wanted to get into our room. The lobby and breakfast room are being drywalled and plaster dust is floating everywhere. The kitchen staff was very pleasant and apologized profusely but could not change the situation. The windows in our room were filthy with handprints and smears. The air conditioner was filthy as well. Patch holes in the wall, shower tile was still mildewed and yet this was a "renovated" room. Electrical plug in and USB port on left side of bed did not work. Hair dryer was never installed again. No washers or dryers available to us. We reported everything to the OWNER of the place who identified himself as the maintenance person and nothing improved. General Manager was told as well of the problems and she apologized but was unable to do anything to fix the problems, Exterior of the hotel looked like a tornado came through with dumpsters overflowing with garbage, furniture boxes and trailers of work supplies for the workmen. The workmen were everywhere and did wake us up in the morning although they tried not to but they were working right down the hall. I am not happy at all with the fact that we were not informed of the renovations until arrival at the hotel, we were not told the pool and hot tub would be useless and we were not told that we would pay full price for a hotel that would not even come close to meeting expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r422179947-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>422179947</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Burleson Holiday Inn</t>
+  </si>
+  <si>
+    <t>In a few months this Holiday Inn will be perfect...it is under going extensive renovations.  If we had known that, we would have stayed elsewhere.  Pool and gym closed.  Lobby, hallways, breakfast area, parking lot are all construction zones.  Room was clean and noise was not a problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>In a few months this Holiday Inn will be perfect...it is under going extensive renovations.  If we had known that, we would have stayed elsewhere.  Pool and gym closed.  Lobby, hallways, breakfast area, parking lot are all construction zones.  Room was clean and noise was not a problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r416449961-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>416449961</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>Not Impressed!</t>
+  </si>
+  <si>
+    <t>Hotel doing major remodel. We found out when we checked in. If we had known we would have stayed somewhere else. Wallpaper glue smelled horrible throughout hotel. Rooms dusty, wallpaper and plaster in bathroom coming down, toilet seat was broken. Shower was nice. Tried the biscuits &amp; gravy wasn't good. It had a strange flavor. They have the room numbers written on masking tape on the doors!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express-Burleson, responded to this reviewResponded October 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2016</t>
+  </si>
+  <si>
+    <t>Hotel doing major remodel. We found out when we checked in. If we had known we would have stayed somewhere else. Wallpaper glue smelled horrible throughout hotel. Rooms dusty, wallpaper and plaster in bathroom coming down, toilet seat was broken. Shower was nice. Tried the biscuits &amp; gravy wasn't good. It had a strange flavor. They have the room numbers written on masking tape on the doors!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r415960523-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>415960523</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>This Hotel is Under Renovation - Go Somewhere Else until Complete!</t>
+  </si>
+  <si>
+    <t>This Hotel is Under Renovation - Go Somewhere Else until Complete!I realized this hotel was being renovated, but did not expect a non-smoking room that smelled like cigarettes. If I had not arrived so late (10:30pm) I would have tried to find another Hotel..I am a top level IHG Rewards customer and this hotel was disappointing.The front desk staff was friendly.Breakfast was usual offerings, but only 3-4 tables were provided.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express-Burleson, responded to this reviewResponded September 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2016</t>
+  </si>
+  <si>
+    <t>This Hotel is Under Renovation - Go Somewhere Else until Complete!I realized this hotel was being renovated, but did not expect a non-smoking room that smelled like cigarettes. If I had not arrived so late (10:30pm) I would have tried to find another Hotel..I am a top level IHG Rewards customer and this hotel was disappointing.The front desk staff was friendly.Breakfast was usual offerings, but only 3-4 tables were provided.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r402028752-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>402028752</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights in April, 2016. There were three of us, myself and my two teenage kids. The hotel is conveniently located off I-35W. It's about a 20 minute drive to downtown Ft. Worth. It's perfect for visiting the Ft. Worth and Arlington area and not having to stay in the larger cities. There are numerous sit down and fast food restaurants close by. There is also a wide variety of large retail stores nearby too. 
+The hotel is clean and well lit at night. The lobby was clean and the front desk employee was friendly and efficient. The breakfast area is large enough to seat everyone and it's located adjacent to a large sitting area if more room is needed. The food selection is your standard hotel variety. It was stocked, kept at proper temperatures and kept clean. No issues at all during the times we were down there. The pool was closed for repairs during our stay.
+Our room was a 2 queen bed suite. It had a sofa sleeper, 2 queen beds, refrigerator, microwave, desk and chair, flat screen TV and a reading chair. The room was clean and had no odors. The beds and pillows were comfortable. The air conditioning was nice and cold with no rattling. The room was quiet. Our room faced the highway. Occasionally you could hear a loud truck, but nothing terrible. The one thing you will hear is...We stayed here for two nights in April, 2016. There were three of us, myself and my two teenage kids. The hotel is conveniently located off I-35W. It's about a 20 minute drive to downtown Ft. Worth. It's perfect for visiting the Ft. Worth and Arlington area and not having to stay in the larger cities. There are numerous sit down and fast food restaurants close by. There is also a wide variety of large retail stores nearby too. The hotel is clean and well lit at night. The lobby was clean and the front desk employee was friendly and efficient. The breakfast area is large enough to seat everyone and it's located adjacent to a large sitting area if more room is needed. The food selection is your standard hotel variety. It was stocked, kept at proper temperatures and kept clean. No issues at all during the times we were down there. The pool was closed for repairs during our stay.Our room was a 2 queen bed suite. It had a sofa sleeper, 2 queen beds, refrigerator, microwave, desk and chair, flat screen TV and a reading chair. The room was clean and had no odors. The beds and pillows were comfortable. The air conditioning was nice and cold with no rattling. The room was quiet. Our room faced the highway. Occasionally you could hear a loud truck, but nothing terrible. The one thing you will hear is a local train that goes by each morning. Not much the hotel can do about a train's horn and it's only one train. The bathroom was clean, stocked with your standard complimentary toiletries. The shower was a tub/shower combo. The water pressure was fine and temperature was steady. The hotel provides free wired and wifi high speed internet access. The TV channels were all clear and static free with a large selection of channels to choose from.Overall, this hotel worked great for our needs for two nights. We would definitely stay here again and most likely will when we are in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded August 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights in April, 2016. There were three of us, myself and my two teenage kids. The hotel is conveniently located off I-35W. It's about a 20 minute drive to downtown Ft. Worth. It's perfect for visiting the Ft. Worth and Arlington area and not having to stay in the larger cities. There are numerous sit down and fast food restaurants close by. There is also a wide variety of large retail stores nearby too. 
+The hotel is clean and well lit at night. The lobby was clean and the front desk employee was friendly and efficient. The breakfast area is large enough to seat everyone and it's located adjacent to a large sitting area if more room is needed. The food selection is your standard hotel variety. It was stocked, kept at proper temperatures and kept clean. No issues at all during the times we were down there. The pool was closed for repairs during our stay.
+Our room was a 2 queen bed suite. It had a sofa sleeper, 2 queen beds, refrigerator, microwave, desk and chair, flat screen TV and a reading chair. The room was clean and had no odors. The beds and pillows were comfortable. The air conditioning was nice and cold with no rattling. The room was quiet. Our room faced the highway. Occasionally you could hear a loud truck, but nothing terrible. The one thing you will hear is...We stayed here for two nights in April, 2016. There were three of us, myself and my two teenage kids. The hotel is conveniently located off I-35W. It's about a 20 minute drive to downtown Ft. Worth. It's perfect for visiting the Ft. Worth and Arlington area and not having to stay in the larger cities. There are numerous sit down and fast food restaurants close by. There is also a wide variety of large retail stores nearby too. The hotel is clean and well lit at night. The lobby was clean and the front desk employee was friendly and efficient. The breakfast area is large enough to seat everyone and it's located adjacent to a large sitting area if more room is needed. The food selection is your standard hotel variety. It was stocked, kept at proper temperatures and kept clean. No issues at all during the times we were down there. The pool was closed for repairs during our stay.Our room was a 2 queen bed suite. It had a sofa sleeper, 2 queen beds, refrigerator, microwave, desk and chair, flat screen TV and a reading chair. The room was clean and had no odors. The beds and pillows were comfortable. The air conditioning was nice and cold with no rattling. The room was quiet. Our room faced the highway. Occasionally you could hear a loud truck, but nothing terrible. The one thing you will hear is a local train that goes by each morning. Not much the hotel can do about a train's horn and it's only one train. The bathroom was clean, stocked with your standard complimentary toiletries. The shower was a tub/shower combo. The water pressure was fine and temperature was steady. The hotel provides free wired and wifi high speed internet access. The TV channels were all clear and static free with a large selection of channels to choose from.Overall, this hotel worked great for our needs for two nights. We would definitely stay here again and most likely will when we are in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r385686086-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>385686086</t>
+  </si>
+  <si>
+    <t>06/24/2016</t>
+  </si>
+  <si>
+    <t>Can't believe we even checked in to this hotel</t>
+  </si>
+  <si>
+    <t>I was so shocked by how awful the pool was, that I went and got a manager.  She said that the pool was 8 years old, so I guess that made the scum and rust everywhere acceptable.  My kids were so excited to swim, but the water was an awful green color and the hot tub was even worse!  I took them upstairs and washes them off!  Then, we checked out and left.  I just couldn't get over how disgusting it was, and even the room had trash left sitting in the kitchen area, so I wasn't even sure if it has been cleaned.  When asked for a refund so we could leave immediately, I was told I would be charges the $115 regardless if we left or not.  Needless to say, no matter how much it cost a very broke family, we left.  We will be calling the manager tomorrow and reporting the pool to the health department.  Rust was all over the place and some gross black stuff!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>I was so shocked by how awful the pool was, that I went and got a manager.  She said that the pool was 8 years old, so I guess that made the scum and rust everywhere acceptable.  My kids were so excited to swim, but the water was an awful green color and the hot tub was even worse!  I took them upstairs and washes them off!  Then, we checked out and left.  I just couldn't get over how disgusting it was, and even the room had trash left sitting in the kitchen area, so I wasn't even sure if it has been cleaned.  When asked for a refund so we could leave immediately, I was told I would be charges the $115 regardless if we left or not.  Needless to say, no matter how much it cost a very broke family, we left.  We will be calling the manager tomorrow and reporting the pool to the health department.  Rust was all over the place and some gross black stuff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r384437119-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>384437119</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very dissatisfied </t>
+  </si>
+  <si>
+    <t>I stayed at a Holiday Inn the night before and was very happy. Then I stayed here and was disappointed. It was deserted and the clerk told me this was the off season. I guess because of that they let the place go a bit. The room was small and just OK. The fitness room was "out of order." How could the whole room be out of order?? Then the pool was so dirty looking! I asked the attendant to turn on the lights at the indoor pool and she said "you'll have to give me a few minutes. I'm kind of busy." I waited, but it was if she thought me and my son were less important than what she was working on. The place was dead. The breakfast pretty good, but comparing it to the other one I stayed at the night before, it was just ok. MoreShow less</t>
+  </si>
+  <si>
+    <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at a Holiday Inn the night before and was very happy. Then I stayed here and was disappointed. It was deserted and the clerk told me this was the off season. I guess because of that they let the place go a bit. The room was small and just OK. The fitness room was "out of order." How could the whole room be out of order?? Then the pool was so dirty looking! I asked the attendant to turn on the lights at the indoor pool and she said "you'll have to give me a few minutes. I'm kind of busy." I waited, but it was if she thought me and my son were less important than what she was working on. The place was dead. The breakfast pretty good, but comparing it to the other one I stayed at the night before, it was just ok. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r384316399-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>384316399</t>
+  </si>
+  <si>
+    <t>I DON’T THINK THIS HOTEL CARES ANYMORE!</t>
+  </si>
+  <si>
+    <t>Let me start off with the positives of this hotel.  First, the room was clean and the AC worked well.  The beds were comfortable and the shower was great.  That said, those things are pretty much available at any hotel, including many at half the price.
+Now for the rest.  When I checked in, the girl at the front desk hardly said two words.  Perhaps she was just having a bad day, but regardless, she just wasn’t very friendly.  She never asked about any floor preferences or how my day was going or anything.  In the great scheme of things, no biggie.
+I went to check out the athletic club and pool area.  The athletic club was closed.  The sign said it was temporarily out of order with no further explanation.  The pool seemed a tad green but the water was clear so perhaps it was just the tint of the floor and walls of the pool itself.  The hot tub was not working.  Instead of the 104° it should have been, it was a whopping 84°.  That super-friendly girl at the front desk said they were waiting on a part.  My wife and I decided to go ahead and enjoy the pool for a while.  As we were exiting a bit later, we noticed something black in the pool near the bottom of the stairs.  I worked on pools and hot tubs for years and had never seen anything...Let me start off with the positives of this hotel.  First, the room was clean and the AC worked well.  The beds were comfortable and the shower was great.  That said, those things are pretty much available at any hotel, including many at half the price.Now for the rest.  When I checked in, the girl at the front desk hardly said two words.  Perhaps she was just having a bad day, but regardless, she just wasn’t very friendly.  She never asked about any floor preferences or how my day was going or anything.  In the great scheme of things, no biggie.I went to check out the athletic club and pool area.  The athletic club was closed.  The sign said it was temporarily out of order with no further explanation.  The pool seemed a tad green but the water was clear so perhaps it was just the tint of the floor and walls of the pool itself.  The hot tub was not working.  Instead of the 104° it should have been, it was a whopping 84°.  That super-friendly girl at the front desk said they were waiting on a part.  My wife and I decided to go ahead and enjoy the pool for a while.  As we were exiting a bit later, we noticed something black in the pool near the bottom of the stairs.  I worked on pools and hot tubs for years and had never seen anything like this, so I began looking around to see if something may have blown in or something.  After a bit, I think I discovered what it was.  The metal housings that go around the sprinkler heads in the ceiling are so rusty that they are disintegrating.  Most of them are 90%-100% gone, but there are a few rusty bits and pieces hanging on.  My assumption is that a chunk broke free and fell in the pool during our time there.  Stepping on those rusty metal shards could have been very dangerous.  I looked around and all the metal door frames and window frames are literally caked with rust.Breakfast was a joke.  I’m vegetarian so I’m used to sometimes having to pick and choose through hotel breakfasts, but times are changing and many are becoming more vegetarian-friendly, so that helps.  Anyway, I essentially had egg and cheese omelets which had little flavor, and cinnamon rolls.  As always, with Holiday Inns, the cinnamon rolls were excellent.  Bananas were the only fruit available on the fruit bar.  Grape jelly was the only jelly or jam available.  There was no real butter…  only whipped spread.  I couldn’t have the biscuits and gravy because of the sausage in the gravy, a bit of overkill, in my opinion, because there were turkey and pork sausage available.  There were no milk substitutes of any kind.The wifi worked well, but I was forced to sign on to the hotel network over and over and over again.  As you have to enter a six-digit code they furnish on check-in, this became burdensome after a while.There was no AC in the third floor hallway and the vending machine on that level was pretty well empty.  I did, however, like the hallway décor.  Cool carpet.None of the employees I dealt with were even remotely friendly, including one I shared the elevator with.  The young man at the front desk Saturday morning seemed talkative and energetic, but I had no dealings with him personally.Perhaps it may seem like nitpicking, but here’s the deal.  There was a sign up at the front desk when I checked in indicating that the Holiday Inn was renovating some of the rooms because they wanted to be the number one premier hotel in Burleson.  Right now, they are number five and they have a long way to go to catch the Hampton Inn at number one.  There is not enough of a price disparity to account for the difference in quality between the two hotels.  There was a sign up in the restroom stating that Holiday Inn would not make you pay for any part of your stay that was not up to standards, but how do you quantify the value of one area vs. another?  How do you decide what dollar value to put on bad breakfasts and dilapidated pools and hot tubs when the room itself was decent?  I don’t know.  I do know that, in this day and age of technology, hotel administrators ought to update websites to let prospective customers know that athletic clubs are closed or hot tubs are down.  Things like that might be enough for someone to rethink the stay and opt for somewhere different.MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me start off with the positives of this hotel.  First, the room was clean and the AC worked well.  The beds were comfortable and the shower was great.  That said, those things are pretty much available at any hotel, including many at half the price.
+Now for the rest.  When I checked in, the girl at the front desk hardly said two words.  Perhaps she was just having a bad day, but regardless, she just wasn’t very friendly.  She never asked about any floor preferences or how my day was going or anything.  In the great scheme of things, no biggie.
+I went to check out the athletic club and pool area.  The athletic club was closed.  The sign said it was temporarily out of order with no further explanation.  The pool seemed a tad green but the water was clear so perhaps it was just the tint of the floor and walls of the pool itself.  The hot tub was not working.  Instead of the 104° it should have been, it was a whopping 84°.  That super-friendly girl at the front desk said they were waiting on a part.  My wife and I decided to go ahead and enjoy the pool for a while.  As we were exiting a bit later, we noticed something black in the pool near the bottom of the stairs.  I worked on pools and hot tubs for years and had never seen anything...Let me start off with the positives of this hotel.  First, the room was clean and the AC worked well.  The beds were comfortable and the shower was great.  That said, those things are pretty much available at any hotel, including many at half the price.Now for the rest.  When I checked in, the girl at the front desk hardly said two words.  Perhaps she was just having a bad day, but regardless, she just wasn’t very friendly.  She never asked about any floor preferences or how my day was going or anything.  In the great scheme of things, no biggie.I went to check out the athletic club and pool area.  The athletic club was closed.  The sign said it was temporarily out of order with no further explanation.  The pool seemed a tad green but the water was clear so perhaps it was just the tint of the floor and walls of the pool itself.  The hot tub was not working.  Instead of the 104° it should have been, it was a whopping 84°.  That super-friendly girl at the front desk said they were waiting on a part.  My wife and I decided to go ahead and enjoy the pool for a while.  As we were exiting a bit later, we noticed something black in the pool near the bottom of the stairs.  I worked on pools and hot tubs for years and had never seen anything like this, so I began looking around to see if something may have blown in or something.  After a bit, I think I discovered what it was.  The metal housings that go around the sprinkler heads in the ceiling are so rusty that they are disintegrating.  Most of them are 90%-100% gone, but there are a few rusty bits and pieces hanging on.  My assumption is that a chunk broke free and fell in the pool during our time there.  Stepping on those rusty metal shards could have been very dangerous.  I looked around and all the metal door frames and window frames are literally caked with rust.Breakfast was a joke.  I’m vegetarian so I’m used to sometimes having to pick and choose through hotel breakfasts, but times are changing and many are becoming more vegetarian-friendly, so that helps.  Anyway, I essentially had egg and cheese omelets which had little flavor, and cinnamon rolls.  As always, with Holiday Inns, the cinnamon rolls were excellent.  Bananas were the only fruit available on the fruit bar.  Grape jelly was the only jelly or jam available.  There was no real butter…  only whipped spread.  I couldn’t have the biscuits and gravy because of the sausage in the gravy, a bit of overkill, in my opinion, because there were turkey and pork sausage available.  There were no milk substitutes of any kind.The wifi worked well, but I was forced to sign on to the hotel network over and over and over again.  As you have to enter a six-digit code they furnish on check-in, this became burdensome after a while.There was no AC in the third floor hallway and the vending machine on that level was pretty well empty.  I did, however, like the hallway décor.  Cool carpet.None of the employees I dealt with were even remotely friendly, including one I shared the elevator with.  The young man at the front desk Saturday morning seemed talkative and energetic, but I had no dealings with him personally.Perhaps it may seem like nitpicking, but here’s the deal.  There was a sign up at the front desk when I checked in indicating that the Holiday Inn was renovating some of the rooms because they wanted to be the number one premier hotel in Burleson.  Right now, they are number five and they have a long way to go to catch the Hampton Inn at number one.  There is not enough of a price disparity to account for the difference in quality between the two hotels.  There was a sign up in the restroom stating that Holiday Inn would not make you pay for any part of your stay that was not up to standards, but how do you quantify the value of one area vs. another?  How do you decide what dollar value to put on bad breakfasts and dilapidated pools and hot tubs when the room itself was decent?  I don’t know.  I do know that, in this day and age of technology, hotel administrators ought to update websites to let prospective customers know that athletic clubs are closed or hot tubs are down.  Things like that might be enough for someone to rethink the stay and opt for somewhere different.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r382526962-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>382526962</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>brought the grandson, we had a very nice room with a wonderful view of the pool.  The play area and the pool is just what we needed, not only for the little guy but for me too. The food was really good. Clean, nice, refreshing!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r379404623-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
@@ -303,9 +802,6 @@
     <t>Been staying here since the place opened in 2007. Excellent, friendly staff. Nice, spacious rooms. However, the place is getting dated &amp; is about to undergo a needed renovation. I could give it 5 stars, except the ventilation systems in the rooms don't work very well any more. Once it's upgraded, I'm sure it will be top-notch, just as before. Location is excellent if you have business, etc. in south Ft. Worth or west of there. Easy to get to lots of places, &amp; good restaurants w/in minutes. We'll be back!More</t>
   </si>
   <si>
-    <t>Pumppeddler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r372474884-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -330,9 +826,6 @@
     <t>Very friendly staff, clean, great coffee and also Keurig in the room now. They frequently upgrade me to a nicer room because I stay there a lot. Several of the desk staff have been there a long time. There is a nice complementary drink and snack time in the afternoon.More</t>
   </si>
   <si>
-    <t>cheermom91</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r363396136-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -348,9 +841,6 @@
     <t>We decided to stop after the races and there were no rooms available close to TMS so we drove to Burleson. This is a nice clean hotel with good prices. The room was big and very clean. Beds are comfortable. The breakfast was good- they have BACON. Yum. The only thing was the indoor pool looked a little green. We just looked at it, didn't bring bathing suits so we didn't swim.Nice and dark rooms- we slept until 10:00 and no light was coming through the dark shade.MoreShow less</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded April 13, 2016</t>
   </si>
   <si>
@@ -360,9 +850,6 @@
     <t>We decided to stop after the races and there were no rooms available close to TMS so we drove to Burleson. This is a nice clean hotel with good prices. The room was big and very clean. Beds are comfortable. The breakfast was good- they have BACON. Yum. The only thing was the indoor pool looked a little green. We just looked at it, didn't bring bathing suits so we didn't swim.Nice and dark rooms- we slept until 10:00 and no light was coming through the dark shade.More</t>
   </si>
   <si>
-    <t>SHORTY60_11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r345037456-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -381,9 +868,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>cjnd2002</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r338783273-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -411,9 +895,6 @@
     <t>I am giving this hotel a rating of 5. It was in a convenient location that was just off the highway. The value was good for what we got (breakfast included). Beds and pillows were very comfortable - no complaints!  Our stay was quiet and we would stay there again if ever in the area. More</t>
   </si>
   <si>
-    <t>Jeff R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r333290345-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -444,9 +925,6 @@
     <t>Spent a night here on our way to Galveston, not bad, bed was comfy, rooms was clean.  We arrived after 10 and the night clerk seemed as if she would rather be elsewhere, but check in was quick nevertheless.  The only really down side was the breakfast.  Mind you it's the normal cereals, juices, biscuits &amp; grave with sausage and a pancake machine.  But all were a little off tasting, I've certainly had better in other Holiday Inns.More</t>
   </si>
   <si>
-    <t>travelsinger97</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r313021175-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -474,9 +952,6 @@
     <t>We made an unexpected stop after visiting Dallas on our way to San Antonio. This was a very nice room. The rooms are very large and comfortable. The breakfast is the normal complimentary breakfast you'd get anywhere else. I will say that it was good. There are several restaurants around the hotel to venture out.More</t>
   </si>
   <si>
-    <t>Stanggirl66</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r291591038-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -495,9 +970,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded July 24, 2015</t>
   </si>
   <si>
@@ -507,9 +979,6 @@
     <t>We made a pit stop here on our way to San Antonio. Was a decent stay. Nice room and your typical breakfast to get ya goin. Front desk people were very nice and helpful. Overall was a good place to stop after a long day of driving. Fyi: photos that were uploaded and titled 'loud, noisy, and overpriced' were not from this hotel. It was a mistake. More</t>
   </si>
   <si>
-    <t>Chuck S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r289629002-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -528,9 +997,6 @@
     <t>I was greeted by the assistant general, Nancy, with a big smile and a welcoming Hello Sir. She immediately asked how she could assist me. After identifying myself she accessed the computer and determined that there was a problem with the reservation. My company had booked the room for the wrong night and had failed to send a credit card authorization. With a positive determination, she said she would help me. Very shortly thereafter, the issue was resolved to my satisfaction, thanks to Nancy's efforts. Her customer service skills are excellent, and Holiday Inn is well served by holding her up as an example to other employees.More</t>
   </si>
   <si>
-    <t>MommyOfTwo88</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r266392086-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -558,9 +1024,6 @@
     <t>Let me just say how absolutely perfect this hotel is. It is right off of 35w behind Cracker Barrel, so very simple to find. My husband was able to check us in within 10 minutes and we then went to our room. Wow! The ceilings are so high and we love the size of this room. 2 queens, comes with a sitting area too. Everything was super clean. Front desk agent was smiling and the pool and spa were very very nice .. Not busy for a Friday night too. If we travel through ft worth again, we will definitely stop here. My daughter's loved the pool. Now time to enjoy the zoo!More</t>
   </si>
   <si>
-    <t>Melissa W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r260520904-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -588,9 +1051,6 @@
     <t>My husband and I were staying in Burleson for a funeral and this hotel was excellent.  I have nothing negative to say at all.  The room was very spacious, clean and accomodating.  The staff was friendly and helpful.  The free "hot" breakfast was delicious, well prepared and presented.  The room included free wifi.  The location was great also being right off the interstate and visible from the interstate, with several good restaurants within walking distance.  There were also many stores and shopping close by if you needed anything.  I would most definitely stay here again!More</t>
   </si>
   <si>
-    <t>Phaserblazer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r250969012-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -618,9 +1078,6 @@
     <t>This was the third time I had stayed in this hotel but this time I had taken my wife with me. As usual the hotel was well run, the room was clean and the staff we had to deal with were all very helpful. As a bonus the hotel lays on a glass of wine or a beer along with a bowl of chilly or similar in the evenings if you feel like it when you come in from work. The hotel has a good number is shops and restaurants in the very near vicinity so there are things to do there if you like. More</t>
   </si>
   <si>
-    <t>Leslee49</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r246529179-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -639,9 +1096,6 @@
     <t>Getting to it can be a challenge, but worth it. You see it from the freeway but odd how one gets to it. Very clean. Lots of restaurants and stores in the vicinity. Breakfast was typical Holiday Inn Express - nothing sensational. The attendant kept everything filled. The biggest problem with HIE is that the English muffins, bagels, etc. are never fresh. They've been frozen for some time and crumble. This seems constant throughout its system. We would stay here again.More</t>
   </si>
   <si>
-    <t>Mitch M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r236364830-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -663,9 +1117,6 @@
     <t>We stayed one night after a party in the area.  The hotel has easy on and off access off I-35.  There are numerous restaurants nearby; we commonly refer to it as restaurant row.It was a newer looking clean property with plenty of free parking.  The desk staff was efficient and friendly.  The room was clean and well laid out with a refrigerator, microwave and coffeepot.  It did not appear to be very crowded so it was very quiet.The complimentary breakfast was very disappointing.  The scrambled eggs were flavorless, the biscuits were hard, the gravy had a strange taste and the turkey sausage was cold and just tasted bad.  The attendant kept everything replaced and was constantly checking and replacing the items so it wasn’t an issue with them getting old.  It must be a quality issue with the ingredients. There is a Cracker Barrel across the street that would be a much better option for breakfast.More</t>
   </si>
   <si>
-    <t>bruce120</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r222923580-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -693,7 +1144,130 @@
     <t>Holiday Inn Express in Burleson is always a nice place to stay when we travel to the Fort Worth area.  The staff is always very helpful.  The rooms are always clean and fresh and their breakfast is always fresh.  Good coffee.  The other hotels in the area are good too. But we always prefer the quieter, friendly atmosphere here.  We will be back!  Thank you.More</t>
   </si>
   <si>
-    <t>Janette W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r220846762-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>220846762</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Will Not Stay Here Again!!!!</t>
+  </si>
+  <si>
+    <t>We are Platinum Elite members with IHG and only stay at Holiday Inn but we will NEVER stay here again.  We stayed here during a trip to a World Series where my son played baseball.  It started when after playing ball in 104 degree temps he wanted to swim and we couldn't due to the room the pool is in being so hot we couldn't breath.  It was like a sauna.  Then when I went to the front to tell them my toilet was stopped up the lady handed me a plunger.  Really!!!!!  I am paying you to plunge your toilet!  Then to top it off I need to do laundry to wash my sons jersey and the washer was broken!  They only had the one so I had to go across the street to use the washer at the Hampton Inn.  Their washer was Free so I guess I saved some money but it was very inconvenient!  We play ball here a lot and will pay out of pocket to stay in another hotel next time.  The only good thing the hotel had going for it was the VERY NICE women who worked nights!MoreShow less</t>
+  </si>
+  <si>
+    <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>We are Platinum Elite members with IHG and only stay at Holiday Inn but we will NEVER stay here again.  We stayed here during a trip to a World Series where my son played baseball.  It started when after playing ball in 104 degree temps he wanted to swim and we couldn't due to the room the pool is in being so hot we couldn't breath.  It was like a sauna.  Then when I went to the front to tell them my toilet was stopped up the lady handed me a plunger.  Really!!!!!  I am paying you to plunge your toilet!  Then to top it off I need to do laundry to wash my sons jersey and the washer was broken!  They only had the one so I had to go across the street to use the washer at the Hampton Inn.  Their washer was Free so I guess I saved some money but it was very inconvenient!  We play ball here a lot and will pay out of pocket to stay in another hotel next time.  The only good thing the hotel had going for it was the VERY NICE women who worked nights!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r209961477-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>209961477</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>This a smoking hotel.</t>
+  </si>
+  <si>
+    <t>I just finished a 10 day road trip with my granddaughter. This hotel is the only HIE that smelled like an ashtray. If you are a smoker this is the HIE for you. The other HIE's were smoke free or they separated smokers and non-smokers by floor. Other than the ashtray smell, the hotel was fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded June 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2014</t>
+  </si>
+  <si>
+    <t>I just finished a 10 day road trip with my granddaughter. This hotel is the only HIE that smelled like an ashtray. If you are a smoker this is the HIE for you. The other HIE's were smoke free or they separated smokers and non-smokers by floor. Other than the ashtray smell, the hotel was fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r209783330-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>209783330</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>It seemed like maybe it was an older hotel, but very clean, friendly staff, great hot continental breakfast.  Large pool area, hot tub, great kid area, game room, exercise room.  We only stayed one night, but was comfortable and quiet.    MoreShow less</t>
+  </si>
+  <si>
+    <t>It seemed like maybe it was an older hotel, but very clean, friendly staff, great hot continental breakfast.  Large pool area, hot tub, great kid area, game room, exercise room.  We only stayed one night, but was comfortable and quiet.    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r208001388-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>208001388</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Clean typical HIE</t>
+  </si>
+  <si>
+    <t>This hotel has the widest hallways we've seen! Strange to start the review off with that comment but it really stood out.  This is your typical HIE that you expect; clean, decent breakfast, and good staff.  The a/c units really need to be updated though as the only glaring negative.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>This hotel has the widest hallways we've seen! Strange to start the review off with that comment but it really stood out.  This is your typical HIE that you expect; clean, decent breakfast, and good staff.  The a/c units really need to be updated though as the only glaring negative.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r200801016-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>200801016</t>
+  </si>
+  <si>
+    <t>04/12/2014</t>
+  </si>
+  <si>
+    <t>Nice Value, Friendly Staff</t>
+  </si>
+  <si>
+    <t>We stayed here recently while we were visiting family.  We stayed in a king size room on the first floor near the lobby and elevator, and although that sounds like a bad mix the room we were in was relatively quiet.  Large bathroom with a good working shower, and a clean and comfortable bed.  They do offer a small breakfast in the morning, but if you don't want to eat there, the property is within walking distance of a couple of restaurants, and within driving distance of a lot more.  Staff was very friendly and courteous ,and we will be staying here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded April 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here recently while we were visiting family.  We stayed in a king size room on the first floor near the lobby and elevator, and although that sounds like a bad mix the room we were in was relatively quiet.  Large bathroom with a good working shower, and a clean and comfortable bed.  They do offer a small breakfast in the morning, but if you don't want to eat there, the property is within walking distance of a couple of restaurants, and within driving distance of a lot more.  Staff was very friendly and courteous ,and we will be staying here again in the future.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r195998064-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
@@ -714,12 +1288,6 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>CaraBurleson, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded April 14, 2014</t>
-  </si>
-  <si>
-    <t>Responded April 14, 2014</t>
-  </si>
-  <si>
     <t>We stayed here for the first time last night.  It was very clean and comfortable.  The breakfast is good.  They had biscuits, sausage gravy, bacon, scrambled eggs, pancakes, patries, toast, cereal, juices, coffee. ect.  They kept it hot and stocked.  Indoor pool with hot tub nice but it was a little cold.  (The kids didn't seem to mind though)  Rooms were a nice size and had micro and fridge.  We will be staying here again next time.More</t>
   </si>
   <si>
@@ -768,9 +1336,6 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t>ksmee33</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r180836362-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -795,9 +1360,6 @@
     <t>Good things: great location, near Hugely Hospital, which was important. Was able to get a discounted rate connected with hospital visit. Very clean. Evening social hour wasvery nice, staff helpful.Not so good:Were not able to get into our room until after 4 PM, and traveled with a very tired senior who needed to rest before heading to hospital. What I really didn't like: we specifically said no smoking that it was very important to us. Apparently 3rd floor of hotel is a smoking floor and even getting off elevator the smell hit us. And it continued into our room, and smelled the whole time. Desk told us it was because rooms around us were smoking rooms. And we couldn't get another room. Yuk.More</t>
   </si>
   <si>
-    <t>Vista_Sultans</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r173422208-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -816,9 +1378,6 @@
     <t>August 2013</t>
   </si>
   <si>
-    <t>Maher B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r159640746-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -837,9 +1396,6 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>Koalaty47</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r155026410-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -858,9 +1414,6 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>Mick S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r153433066-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -888,9 +1441,6 @@
     <t>The holiday inn express at Burleson offers an excellent level of accomodation at reasonable prices.The staff are extremely pleasant, helpful without being overbearing and present themselves in a relaxed but very professional manner.The breakfasts are complimentary and whilst offering a limited choice the standard is very acceptable and fits the bill for business travellers.Access to the highway couldnt be easier and there are a wide range of eateries all within walking distance without the issue of crossing too many roads.All in all an excellent place to stay if you are viviting the Fort Worth area on business.More</t>
   </si>
   <si>
-    <t>txfrmgrl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r151117765-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -912,9 +1462,6 @@
     <t>We stayed on a Friday night for a meeting in Ft. Worth the next morning. It was a short night due to screaming teens in the hall, running up and down the hall, slamming doors.  It started about the time we went to bed...9:00 PM.  I should have called the desk in a split second but waited hoping they would settle down.  There was running and floor pounding above us, also. I called the desk at 10:15 to report and she said she would do something about it.  I had to call back ANOTHER time about 11:30 PM.  The lady at the desk said, "Yes, I am watching them on camera... they are now running downstairs to get ice cream."  (Oh geeze.)  My husband finally opened the door and yelled at them to get in their rooms and go  to bed that there are people  trying to sleep.  Yeah, I am sure we were called the old trolls next door.    Next morning while checking out, I told the man we really had a bad night, recalled the events and that we need to talk about the bill.  He said, "I have no authority".    That afternoon, the day manager called us and ended up knocking $15 dollars off bill.  Not sure that was enough.  Let's see.... That's $5 an hour during all the disturbance!  Not even minimum wage!!    :)     We will stay there again since it is a nice property but...We stayed on a Friday night for a meeting in Ft. Worth the next morning. It was a short night due to screaming teens in the hall, running up and down the hall, slamming doors.  It started about the time we went to bed...9:00 PM.  I should have called the desk in a split second but waited hoping they would settle down.  There was running and floor pounding above us, also. I called the desk at 10:15 to report and she said she would do something about it.  I had to call back ANOTHER time about 11:30 PM.  The lady at the desk said, "Yes, I am watching them on camera... they are now running downstairs to get ice cream."  (Oh geeze.)  My husband finally opened the door and yelled at them to get in their rooms and go  to bed that there are people  trying to sleep.  Yeah, I am sure we were called the old trolls next door.    Next morning while checking out, I told the man we really had a bad night, recalled the events and that we need to talk about the bill.  He said, "I have no authority".    That afternoon, the day manager called us and ended up knocking $15 dollars off bill.  Not sure that was enough.  Let's see.... That's $5 an hour during all the disturbance!  Not even minimum wage!!    :)     We will stay there again since it is a nice property but will first check about tournaments in the area.More</t>
   </si>
   <si>
-    <t>VWO</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r145927229-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -939,9 +1486,6 @@
     <t>Rooms are very small, pool is not heated. Drawers on dresser would not stay closed. Would/ will not stay again.  Very disappointing comparing to pictures on website.  Not good price for accommodations......More</t>
   </si>
   <si>
-    <t>RobNMX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r141436553-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -969,9 +1513,6 @@
     <t>Our family was together for a funeral earlier this month, and we all stayed at the Holiday Inn Express in Burleson.  I must say that the staff was exceptional.  Extremely friendly, greeted us each time we passed by the front door, expressed their sympathy for our loss, then smiled and made us feel totally at home.  Our group ranged in age from 4-89 years old, and we were all perfectly comfortable.  The location is convenient for anything on the southwest side of Ft. Worth, and having dinner at the near-by Mexican Inn was an added treat.More</t>
   </si>
   <si>
-    <t>scubacher</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r135626457-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -990,9 +1531,6 @@
     <t>I've never stayed with Holiday Inn before.  I can't say enough great things about this hotel!  Clean, neat, organized and well maintained.  There are so many extra perks and touches that make travelling more comfortable.  My room was ultra clean and the bed super comfortable.  The bathroom was clean and the shower worked great.  It had free wifi, a small refrigerator, microwave, and coffee pot.  They sold various microwavable items in the lobby.  Freebies included snacks in the evening and an awersome breakfast in the morning, Local &amp; USA Today newspapers.  In the evening, they served wine, beer, sodas, cheese and crackers and other appetizers.  It was a lovely touch.  Breakfast included scrambled eggs, bacon, biscuits and gravey, pancakes, hot cinnamon rolls, various pastries, oatmeal, cereal, fresh fruit, juice FRESH coffee that actually tastes good and many other items.  I usually don't eat at hotels that serve a free breakfast because they are usually horrible but this one was clean, fresh and great!  Again, I can't say enough good things about this hotel.  I now have a place that I know will be wonderful to stay while traveling no matter what city I am staying in.  CLEAN, CLEAN, CLEAN!  Friendly staff as well.More</t>
   </si>
   <si>
-    <t>JJ S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r124429993-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1020,9 +1558,6 @@
     <t>The first thing I noticed when checking into this hotel was the airport directly behind it, which sort of concerned me at first; but I was pleasantly surprised when all air traffic subsided by 8 pm- or I slept so well that I didn't even notice it... As I sat out in parking lot between all four hotels at this intersection, I Googled the location and read some reviews; Holiday Inn Express was the best &amp; said that the staff "made them feel like a part of the family."  So I put them to the test and upon checkin I met a wonderful clerk whose smile lit up the foyer and she quickly checked me in at a reasonable rate, as she could tell I was tired.  The bed was comfortable and choice of pillows was nice.  Secure wireless access was good (I've been hacked on unsecure networks before).  The free happy hour from 5-7pm was nice with tamales and beverages before dinner and the breakfast was quite a spread the next morning.  The fitness center was small, but had three cardio machines and dumbbell weights for using along with a decently-sized indoor pool.  Overall pleasant experience in the middle of a hectic business trip; I will be staying here again.More</t>
   </si>
   <si>
-    <t>US9</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r123850934-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1044,9 +1579,6 @@
     <t>1st time we stayed at a HI - Express; we usually stay @ Sheraton, Westin, Double Tree type places. Clean, comfortable, friendly, inexpensive, big room with sleeper sofa! Near restaurants, not too far from DT Ft Worth!More</t>
   </si>
   <si>
-    <t>Robin P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r118432047-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1066,6 +1598,299 @@
   </si>
   <si>
     <t>I stay here often for business and couldn't ask for better customer service. They go out of their way to make your stay the best possible. The area is nice and so is the hotel. I wouldn't stay any where else when I am in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r116117518-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>116117518</t>
+  </si>
+  <si>
+    <t>08/01/2011</t>
+  </si>
+  <si>
+    <t>Great staff and hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a week while we were in town for my son's Pony baseball tournament.  There were 12 families who traveled, along with the team's coach.  During our stay the saff was very friendly and accomodating and went above and beyond to make our stay a good one.  
+The rooms were nice and freshly decorated for a hotel in this category.  We stayed in a suite, which really was not much bigger than a regular room, but it did have a couch, a mini fridge and microwave, which made things nice for such a long stay.
+The pool was an indoor pool and was average.  The work out room is small, but the equipment is in good shape and let those of us who wanted to exercise do so without venturing into the Texas heat!
+The breakfast was good and the boys loved working the self-serve pancake machine.  The hotel had coffee available 24/7 and made fresh-baked cookies in the afternoon.  
+I can't say enough good things about the staff of the hotel.  They pulled a grill out of the storage room for us to allow us to grill burgers on several occasions on the back patio and basically took care of anythiing we needed.
+There are a lot of restaurants in the immediate vicinity including Outback, Chili's, Cracker Barrel and a number of local spots.  I would defiitely recommend the hotel and would stay there...We stayed at this hotel for a week while we were in town for my son's Pony baseball tournament.  There were 12 families who traveled, along with the team's coach.  During our stay the saff was very friendly and accomodating and went above and beyond to make our stay a good one.  The rooms were nice and freshly decorated for a hotel in this category.  We stayed in a suite, which really was not much bigger than a regular room, but it did have a couch, a mini fridge and microwave, which made things nice for such a long stay.The pool was an indoor pool and was average.  The work out room is small, but the equipment is in good shape and let those of us who wanted to exercise do so without venturing into the Texas heat!The breakfast was good and the boys loved working the self-serve pancake machine.  The hotel had coffee available 24/7 and made fresh-baked cookies in the afternoon.  I can't say enough good things about the staff of the hotel.  They pulled a grill out of the storage room for us to allow us to grill burgers on several occasions on the back patio and basically took care of anythiing we needed.There are a lot of restaurants in the immediate vicinity including Outback, Chili's, Cracker Barrel and a number of local spots.  I would defiitely recommend the hotel and would stay there again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>VickyManager, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded August 4, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2011</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a week while we were in town for my son's Pony baseball tournament.  There were 12 families who traveled, along with the team's coach.  During our stay the saff was very friendly and accomodating and went above and beyond to make our stay a good one.  
+The rooms were nice and freshly decorated for a hotel in this category.  We stayed in a suite, which really was not much bigger than a regular room, but it did have a couch, a mini fridge and microwave, which made things nice for such a long stay.
+The pool was an indoor pool and was average.  The work out room is small, but the equipment is in good shape and let those of us who wanted to exercise do so without venturing into the Texas heat!
+The breakfast was good and the boys loved working the self-serve pancake machine.  The hotel had coffee available 24/7 and made fresh-baked cookies in the afternoon.  
+I can't say enough good things about the staff of the hotel.  They pulled a grill out of the storage room for us to allow us to grill burgers on several occasions on the back patio and basically took care of anythiing we needed.
+There are a lot of restaurants in the immediate vicinity including Outback, Chili's, Cracker Barrel and a number of local spots.  I would defiitely recommend the hotel and would stay there...We stayed at this hotel for a week while we were in town for my son's Pony baseball tournament.  There were 12 families who traveled, along with the team's coach.  During our stay the saff was very friendly and accomodating and went above and beyond to make our stay a good one.  The rooms were nice and freshly decorated for a hotel in this category.  We stayed in a suite, which really was not much bigger than a regular room, but it did have a couch, a mini fridge and microwave, which made things nice for such a long stay.The pool was an indoor pool and was average.  The work out room is small, but the equipment is in good shape and let those of us who wanted to exercise do so without venturing into the Texas heat!The breakfast was good and the boys loved working the self-serve pancake machine.  The hotel had coffee available 24/7 and made fresh-baked cookies in the afternoon.  I can't say enough good things about the staff of the hotel.  They pulled a grill out of the storage room for us to allow us to grill burgers on several occasions on the back patio and basically took care of anythiing we needed.There are a lot of restaurants in the immediate vicinity including Outback, Chili's, Cracker Barrel and a number of local spots.  I would defiitely recommend the hotel and would stay there again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r108387018-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>108387018</t>
+  </si>
+  <si>
+    <t>05/15/2011</t>
+  </si>
+  <si>
+    <t>What a nice hotel</t>
+  </si>
+  <si>
+    <t>We usually stay at HI Express as we are Priority Club members and also read review on Trip Advisor on this hotel.  It was just lovely.  EVERY staff member in this hotel could not have been nicer and more polite.  The room was spotless and quite large.  The bed was great and we slept very well.  The breakfast buffet was hot and fresh and the room was very comfy with plenty of seats.  We did not use the pool or exercise room, but we did use the business center in a small room off the lobby.  Nice and private. Plenty of parking and loads of restaurant options within walking distance or a very short drive right across Rt. 35.  We had a small fridge and microwave in our room and there is a small area in the lobby where you can purchase snacks, drinks and microwave snacks.  I have never seen that service before.  We will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>VickyManager, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded May 17, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2011</t>
+  </si>
+  <si>
+    <t>We usually stay at HI Express as we are Priority Club members and also read review on Trip Advisor on this hotel.  It was just lovely.  EVERY staff member in this hotel could not have been nicer and more polite.  The room was spotless and quite large.  The bed was great and we slept very well.  The breakfast buffet was hot and fresh and the room was very comfy with plenty of seats.  We did not use the pool or exercise room, but we did use the business center in a small room off the lobby.  Nice and private. Plenty of parking and loads of restaurant options within walking distance or a very short drive right across Rt. 35.  We had a small fridge and microwave in our room and there is a small area in the lobby where you can purchase snacks, drinks and microwave snacks.  I have never seen that service before.  We will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r101367803-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>101367803</t>
+  </si>
+  <si>
+    <t>03/24/2011</t>
+  </si>
+  <si>
+    <t>2011 Stay</t>
+  </si>
+  <si>
+    <t>I've stayed over 20 nights at this Holiday Inn Express so far in 2011 and will continue to do so throughout the year. There are other Holiday Inn Express's closer to where my business takes me, but I find the one in Bulreson to be the most to my liking. The rooms are clean, I enjoy the complimentry nightly happy hours, but most of all what brings me back is the hotel staff. They are a great bunch of friendly, professional people.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>VickyManager, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded April 1, 2011</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2011</t>
+  </si>
+  <si>
+    <t>I've stayed over 20 nights at this Holiday Inn Express so far in 2011 and will continue to do so throughout the year. There are other Holiday Inn Express's closer to where my business takes me, but I find the one in Bulreson to be the most to my liking. The rooms are clean, I enjoy the complimentry nightly happy hours, but most of all what brings me back is the hotel staff. They are a great bunch of friendly, professional people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r100891852-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>100891852</t>
+  </si>
+  <si>
+    <t>03/20/2011</t>
+  </si>
+  <si>
+    <t>Perfect balance of quality and price</t>
+  </si>
+  <si>
+    <t>DFW area has the best price to quality ratio in the world when it comes to hotels and this hotel was no exception.  Being a Holiday Inn Express, it doesn't have quite the bells and whistles of an Intercontinenal. But, for anyone who cares more about a well fitted-out room, a quiet night, convenience and friendly services, this is a really good place to stay.  
+The hotel is alongside a bunch of hotels and restaurants right next to i-35 west.  It is set well back though, so there is no noise or bustle / it was actually very quiet.  That said, there must be 100 restaurants within a mile. Add to that Albertsons and most well known franchises and it is hard to know what you would be missing in the way of shopping. It is about a 20 minute drive from Ft Worth about 30 to Arlington and about 45-50 minutes from DFW airport if traffic is flowing well. For a Cowboys game, there may be closer hotels but I would consider this within striking distance.
+The room I had was well kitted out with a microwave, iron and ironing board, coffee stuff, a decent sized desk, sofa, tv and jacuzzi.  The jacuzzi was a little bit odd because it was in the main bedroom area rather than a separate room. The shower worked well - plenty of hot water.  The bed was not overly firm compared to say,...DFW area has the best price to quality ratio in the world when it comes to hotels and this hotel was no exception.  Being a Holiday Inn Express, it doesn't have quite the bells and whistles of an Intercontinenal. But, for anyone who cares more about a well fitted-out room, a quiet night, convenience and friendly services, this is a really good place to stay.  The hotel is alongside a bunch of hotels and restaurants right next to i-35 west.  It is set well back though, so there is no noise or bustle / it was actually very quiet.  That said, there must be 100 restaurants within a mile. Add to that Albertsons and most well known franchises and it is hard to know what you would be missing in the way of shopping. It is about a 20 minute drive from Ft Worth about 30 to Arlington and about 45-50 minutes from DFW airport if traffic is flowing well. For a Cowboys game, there may be closer hotels but I would consider this within striking distance.The room I had was well kitted out with a microwave, iron and ironing board, coffee stuff, a decent sized desk, sofa, tv and jacuzzi.  The jacuzzi was a little bit odd because it was in the main bedroom area rather than a separate room. The shower worked well - plenty of hot water.  The bed was not overly firm compared to say, your average Hilton bed.Breakfast was plentiful and decent. First time I have seen an automated pancake maker - genius.  Other foods included cereals, scrambled eggs, bacon, biscuits, bananas, a pasty cabinet with muffins of all descriptions, breads etc. Coffee was also provided along with juice, although the juice seemed pretty sugary. That was after tasting the cinnamon rolls too. In any case, it was a good, filling meal and good value as an inclusion in the price.There is a swimming pool indoors and there is also a fitness center with about 3 or 4 treadmills.  I did not use it so that was just an impression at a glance.  The final comment is about the service.  I thought the people running the place were really nice and friendly - very welcoming.  And, the true proof in the pudding of whether I would return: yes, definitely.MoreShow less</t>
+  </si>
+  <si>
+    <t>VickyManager, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded March 22, 2011</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2011</t>
+  </si>
+  <si>
+    <t>DFW area has the best price to quality ratio in the world when it comes to hotels and this hotel was no exception.  Being a Holiday Inn Express, it doesn't have quite the bells and whistles of an Intercontinenal. But, for anyone who cares more about a well fitted-out room, a quiet night, convenience and friendly services, this is a really good place to stay.  
+The hotel is alongside a bunch of hotels and restaurants right next to i-35 west.  It is set well back though, so there is no noise or bustle / it was actually very quiet.  That said, there must be 100 restaurants within a mile. Add to that Albertsons and most well known franchises and it is hard to know what you would be missing in the way of shopping. It is about a 20 minute drive from Ft Worth about 30 to Arlington and about 45-50 minutes from DFW airport if traffic is flowing well. For a Cowboys game, there may be closer hotels but I would consider this within striking distance.
+The room I had was well kitted out with a microwave, iron and ironing board, coffee stuff, a decent sized desk, sofa, tv and jacuzzi.  The jacuzzi was a little bit odd because it was in the main bedroom area rather than a separate room. The shower worked well - plenty of hot water.  The bed was not overly firm compared to say,...DFW area has the best price to quality ratio in the world when it comes to hotels and this hotel was no exception.  Being a Holiday Inn Express, it doesn't have quite the bells and whistles of an Intercontinenal. But, for anyone who cares more about a well fitted-out room, a quiet night, convenience and friendly services, this is a really good place to stay.  The hotel is alongside a bunch of hotels and restaurants right next to i-35 west.  It is set well back though, so there is no noise or bustle / it was actually very quiet.  That said, there must be 100 restaurants within a mile. Add to that Albertsons and most well known franchises and it is hard to know what you would be missing in the way of shopping. It is about a 20 minute drive from Ft Worth about 30 to Arlington and about 45-50 minutes from DFW airport if traffic is flowing well. For a Cowboys game, there may be closer hotels but I would consider this within striking distance.The room I had was well kitted out with a microwave, iron and ironing board, coffee stuff, a decent sized desk, sofa, tv and jacuzzi.  The jacuzzi was a little bit odd because it was in the main bedroom area rather than a separate room. The shower worked well - plenty of hot water.  The bed was not overly firm compared to say, your average Hilton bed.Breakfast was plentiful and decent. First time I have seen an automated pancake maker - genius.  Other foods included cereals, scrambled eggs, bacon, biscuits, bananas, a pasty cabinet with muffins of all descriptions, breads etc. Coffee was also provided along with juice, although the juice seemed pretty sugary. That was after tasting the cinnamon rolls too. In any case, it was a good, filling meal and good value as an inclusion in the price.There is a swimming pool indoors and there is also a fitness center with about 3 or 4 treadmills.  I did not use it so that was just an impression at a glance.  The final comment is about the service.  I thought the people running the place were really nice and friendly - very welcoming.  And, the true proof in the pudding of whether I would return: yes, definitely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r79966834-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>79966834</t>
+  </si>
+  <si>
+    <t>09/17/2010</t>
+  </si>
+  <si>
+    <t>Great place to stay.  Very clean.  The front desk folks are very nice.</t>
+  </si>
+  <si>
+    <t>I have stayed at the Holiday Inn Express many times.  It is always very clean and the furnishing are very nice.  The front desk folks are very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>VickyManager, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded November 16, 2010</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2010</t>
+  </si>
+  <si>
+    <t>I have stayed at the Holiday Inn Express many times.  It is always very clean and the furnishing are very nice.  The front desk folks are very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r59538746-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>59538746</t>
+  </si>
+  <si>
+    <t>03/25/2010</t>
+  </si>
+  <si>
+    <t>Watch out...maid let someone on my room for money...</t>
+  </si>
+  <si>
+    <t>I stayed at this Hotel March 20th for a HS class reunion. GREAT girl at the front desk and room was really nice. Beds and pillows were awsome...my problem arose when I went to visit classmates in another room....upon my return someone was laying in my bed...seems the guy couldn't get his key to work (are that was the story he gave). He said he didn't want to go to the front desk so he paid the maid to use her passkey. My purse with credit cards and all information was in there...I was so scared I grabbed my things and just left the hotel...I tried to call back to the hotel after I got my bearings and only got a recording so I shot an e-mail off to the company. That was 5 days ago still no response...(if anyone knows how to contact them I would appreciate the info). The maid that did this was steady appologizing as I was leaving......this could have been a thief,a rapist....very scary...will never stay there again. I give the service as poor ONLY because of the maid....other staff was Excellant!MoreShow less</t>
+  </si>
+  <si>
+    <t>VickyManager, General Manager at Holiday Inn Express-Burleson, responded to this reviewResponded November 23, 2010</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2010</t>
+  </si>
+  <si>
+    <t>I stayed at this Hotel March 20th for a HS class reunion. GREAT girl at the front desk and room was really nice. Beds and pillows were awsome...my problem arose when I went to visit classmates in another room....upon my return someone was laying in my bed...seems the guy couldn't get his key to work (are that was the story he gave). He said he didn't want to go to the front desk so he paid the maid to use her passkey. My purse with credit cards and all information was in there...I was so scared I grabbed my things and just left the hotel...I tried to call back to the hotel after I got my bearings and only got a recording so I shot an e-mail off to the company. That was 5 days ago still no response...(if anyone knows how to contact them I would appreciate the info). The maid that did this was steady appologizing as I was leaving......this could have been a thief,a rapist....very scary...will never stay there again. I give the service as poor ONLY because of the maid....other staff was Excellant!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r58984075-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>58984075</t>
+  </si>
+  <si>
+    <t>03/19/2010</t>
+  </si>
+  <si>
+    <t>One of the best hotel stays we've had in a long time!</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express was an exceptional value, and we highly recommend it.  It is a relatively new hotel, with very nice amenities, including a hot &amp; cold breakfast bar that was above average.  We were there for five days, and were very impressed with the cleanliness, neatness, and care of the hotel.  The rooms were very comfortable, and well maintained.  In spite of the fact that the hotel is not far off of the interstate, it was very quiet and pleasant there.  Most importantly, every single staff member we encountered during our stay was exceptionally pleasant, friendly, courteous and helpful.  The management of the hotel is to be commended for creating such a pleasant staff of employees.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express was an exceptional value, and we highly recommend it.  It is a relatively new hotel, with very nice amenities, including a hot &amp; cold breakfast bar that was above average.  We were there for five days, and were very impressed with the cleanliness, neatness, and care of the hotel.  The rooms were very comfortable, and well maintained.  In spite of the fact that the hotel is not far off of the interstate, it was very quiet and pleasant there.  Most importantly, every single staff member we encountered during our stay was exceptionally pleasant, friendly, courteous and helpful.  The management of the hotel is to be commended for creating such a pleasant staff of employees.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r46247836-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>46247836</t>
+  </si>
+  <si>
+    <t>10/08/2009</t>
+  </si>
+  <si>
+    <t>In need of training</t>
+  </si>
+  <si>
+    <t>When I got there and wanted to pay cash I was asked to put down a $250.00 deposit, which I had but needed to feed my family with. She said I either needed to put a deposit or a credit card on file, she argued with me and then it dawned on me. My sister guaranteed the room with a credit card. Why can't I pay cash? It was a huge hassle. And then the whole reason we stayed here was because they had a heated indoor pool and it was chilly outside. It turned out to be ice cold and the kids didn't get to swim for long, it was just too cold. It was a real dissappointment. I think I will stay in another town before I would come back to this hotel. Thanks anyway.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>When I got there and wanted to pay cash I was asked to put down a $250.00 deposit, which I had but needed to feed my family with. She said I either needed to put a deposit or a credit card on file, she argued with me and then it dawned on me. My sister guaranteed the room with a credit card. Why can't I pay cash? It was a huge hassle. And then the whole reason we stayed here was because they had a heated indoor pool and it was chilly outside. It turned out to be ice cold and the kids didn't get to swim for long, it was just too cold. It was a real dissappointment. I think I will stay in another town before I would come back to this hotel. Thanks anyway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r17188272-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>17188272</t>
+  </si>
+  <si>
+    <t>06/24/2008</t>
+  </si>
+  <si>
+    <t>Clean and Quiet</t>
+  </si>
+  <si>
+    <t>Stayed one night.Room was extremely clean and very quiet.No smoking  is a plus.Bed comfortable.Good water pressure in shower.Friendly staff.Overall good experience, would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r10190104-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>10190104</t>
+  </si>
+  <si>
+    <t>10/21/2007</t>
+  </si>
+  <si>
+    <t>great hotel, great staff</t>
+  </si>
+  <si>
+    <t>This new hotel was great all the way around. We arrived late and the staff was very courteous and even called me on my cell to see if we were still coming to save the room. I arrived with a livestock trailer and 3 kids. The front desk made sure to let me know where the security cameras were in the parking lot so that our truck and trailer were in view. The kids couldn't wait to get to the pool and hot tub, the pool isn't huge but big enough. Once we arrived at our room it equalled in value to the $350+ Hilton that I'd stayed in at Austin a week or so before. It was a very nice surprise. Two thumbs up from me.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>This new hotel was great all the way around. We arrived late and the staff was very courteous and even called me on my cell to see if we were still coming to save the room. I arrived with a livestock trailer and 3 kids. The front desk made sure to let me know where the security cameras were in the parking lot so that our truck and trailer were in view. The kids couldn't wait to get to the pool and hot tub, the pool isn't huge but big enough. Once we arrived at our room it equalled in value to the $350+ Hilton that I'd stayed in at Austin a week or so before. It was a very nice surprise. Two thumbs up from me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r7835335-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>7835335</t>
+  </si>
+  <si>
+    <t>06/10/2007</t>
+  </si>
+  <si>
+    <t>Very pretty and polite -- too bad it was uncomfortable, too!</t>
+  </si>
+  <si>
+    <t>Before I begin with the not-so-great aspects of this hotel, I want to start by stating that this Holiday Inn Express is one of the nicest no-frills (non-luxury) hotels I have been to in quite some time.  The use of marble (and other stones) throughout the property, coupled with its relatively new decor (the property is fairly new) was very pleasant.  The staff were nothing but polite and courteous during our stay.  The continental plus breakfast was adequate, if not inspired -- it filled the void, but that was about it.
+Having said that, I would not recommend this property.  The rooms were nice, perhaps a little larger than the norm, but in a hotel I need two things:  a hot shower and a comfortable bed; the former was accomodated, the latter was not.  The bed was one of the firmest I have ever attempted to sleep on (and I like firmer beds, as compared to my wife).  Niether my wife nor I were able to sleep more than a couple of hours at a time over the course of our two night stay.  That's it, really.  It was an uncomfortable bed.  But at a rack rate of $120/night (which is unconscionable for this level of property -- in the last year, I've stayed at the Intercontinental in Houston for less!!!) the room was completely and totally unacceptable.  In retrospect, I should have mentioned my concerns to management after the...Before I begin with the not-so-great aspects of this hotel, I want to start by stating that this Holiday Inn Express is one of the nicest no-frills (non-luxury) hotels I have been to in quite some time.  The use of marble (and other stones) throughout the property, coupled with its relatively new decor (the property is fairly new) was very pleasant.  The staff were nothing but polite and courteous during our stay.  The continental plus breakfast was adequate, if not inspired -- it filled the void, but that was about it.Having said that, I would not recommend this property.  The rooms were nice, perhaps a little larger than the norm, but in a hotel I need two things:  a hot shower and a comfortable bed; the former was accomodated, the latter was not.  The bed was one of the firmest I have ever attempted to sleep on (and I like firmer beds, as compared to my wife).  Niether my wife nor I were able to sleep more than a couple of hours at a time over the course of our two night stay.  That's it, really.  It was an uncomfortable bed.  But at a rack rate of $120/night (which is unconscionable for this level of property -- in the last year, I've stayed at the Intercontinental in Houston for less!!!) the room was completely and totally unacceptable.  In retrospect, I should have mentioned my concerns to management after the first night, but out stay was a busy one and it did not occur until after we left the property.   Having said that, there is absolutely no excuse for such a new property to have such unforgiving bedding.BTW, if you are considering the Super 8 that is right next door to the Holiday Inn Express, I have heard some horror stories there as well, for only a few dollars less.FuzzylogikMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>Before I begin with the not-so-great aspects of this hotel, I want to start by stating that this Holiday Inn Express is one of the nicest no-frills (non-luxury) hotels I have been to in quite some time.  The use of marble (and other stones) throughout the property, coupled with its relatively new decor (the property is fairly new) was very pleasant.  The staff were nothing but polite and courteous during our stay.  The continental plus breakfast was adequate, if not inspired -- it filled the void, but that was about it.
+Having said that, I would not recommend this property.  The rooms were nice, perhaps a little larger than the norm, but in a hotel I need two things:  a hot shower and a comfortable bed; the former was accomodated, the latter was not.  The bed was one of the firmest I have ever attempted to sleep on (and I like firmer beds, as compared to my wife).  Niether my wife nor I were able to sleep more than a couple of hours at a time over the course of our two night stay.  That's it, really.  It was an uncomfortable bed.  But at a rack rate of $120/night (which is unconscionable for this level of property -- in the last year, I've stayed at the Intercontinental in Houston for less!!!) the room was completely and totally unacceptable.  In retrospect, I should have mentioned my concerns to management after the...Before I begin with the not-so-great aspects of this hotel, I want to start by stating that this Holiday Inn Express is one of the nicest no-frills (non-luxury) hotels I have been to in quite some time.  The use of marble (and other stones) throughout the property, coupled with its relatively new decor (the property is fairly new) was very pleasant.  The staff were nothing but polite and courteous during our stay.  The continental plus breakfast was adequate, if not inspired -- it filled the void, but that was about it.Having said that, I would not recommend this property.  The rooms were nice, perhaps a little larger than the norm, but in a hotel I need two things:  a hot shower and a comfortable bed; the former was accomodated, the latter was not.  The bed was one of the firmest I have ever attempted to sleep on (and I like firmer beds, as compared to my wife).  Niether my wife nor I were able to sleep more than a couple of hours at a time over the course of our two night stay.  That's it, really.  It was an uncomfortable bed.  But at a rack rate of $120/night (which is unconscionable for this level of property -- in the last year, I've stayed at the Intercontinental in Houston for less!!!) the room was completely and totally unacceptable.  In retrospect, I should have mentioned my concerns to management after the first night, but out stay was a busy one and it did not occur until after we left the property.   Having said that, there is absolutely no excuse for such a new property to have such unforgiving bedding.BTW, if you are considering the Super 8 that is right next door to the Holiday Inn Express, I have heard some horror stories there as well, for only a few dollars less.FuzzylogikMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d631347-r7276484-Holiday_Inn_Express_Burleson-Burleson_Texas.html</t>
+  </si>
+  <si>
+    <t>7276484</t>
+  </si>
+  <si>
+    <t>04/02/2007</t>
+  </si>
+  <si>
+    <t>Great Hotel - Great Area</t>
+  </si>
+  <si>
+    <t>I am a member of their Priority Club and was looking for a place for 2 nights. This was one of the options when wanting to use my points so I thought why not. It's only approx. 15 min. south of FW off of I-35. The hotel was very easy to reach and a great area. There is a Chili's within walking distance. Several options for shopping and eating are within 5minutues of the hotel by car. 
+The lobby was very nicely decorated with big plush chairs, an added plus was a indoor pool and hot tub. The exercise room had 2 treadmills, nice free weights, 2 ellipticals along with 2 televisions. The contential breakfast was the ususal, cereal, fruit, yogurt, a variety of juices was available along with some hot items (bacon, french toast and cinnamon rolls). 
+The rooms were nicely decorated also with big comfortable beds along with soft or firm pillow to choose from along with an extra blanket at the foot of each bed if needed. Free wireless internet is also available which is a nice plus. There was an easy chair that was big, comfortable along with a footrest and a little side table. The only problem I had with the bathroom was that when you turned on the light the fan also came on. Rather bothersome in the middle of the night. The hotel is also adjacent to Fort Worth Spinks Airport, a small...I am a member of their Priority Club and was looking for a place for 2 nights. This was one of the options when wanting to use my points so I thought why not. It's only approx. 15 min. south of FW off of I-35. The hotel was very easy to reach and a great area. There is a Chili's within walking distance. Several options for shopping and eating are within 5minutues of the hotel by car. The lobby was very nicely decorated with big plush chairs, an added plus was a indoor pool and hot tub. The exercise room had 2 treadmills, nice free weights, 2 ellipticals along with 2 televisions. The contential breakfast was the ususal, cereal, fruit, yogurt, a variety of juices was available along with some hot items (bacon, french toast and cinnamon rolls). The rooms were nicely decorated also with big comfortable beds along with soft or firm pillow to choose from along with an extra blanket at the foot of each bed if needed. Free wireless internet is also available which is a nice plus. There was an easy chair that was big, comfortable along with a footrest and a little side table. The only problem I had with the bathroom was that when you turned on the light the fan also came on. Rather bothersome in the middle of the night. The hotel is also adjacent to Fort Worth Spinks Airport, a small municipal airport, which would also be nice to fly into and get a room here. All in all, we definitely enjoyed our stay here and plan to return the next time we need a room in the metroplex. The only "bad experience" I ran into was not  the fault of the hotel but of the guests. One morning there were several girls (10-12 years old)having breakfast unsupervised and once the bacon was brought out they grabbed handfuls of it. These were also the same girls that ran amock in the pool area and tossed the pool towels into the pool. After that you needed to obtain your pool towel from the front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a member of their Priority Club and was looking for a place for 2 nights. This was one of the options when wanting to use my points so I thought why not. It's only approx. 15 min. south of FW off of I-35. The hotel was very easy to reach and a great area. There is a Chili's within walking distance. Several options for shopping and eating are within 5minutues of the hotel by car. 
+The lobby was very nicely decorated with big plush chairs, an added plus was a indoor pool and hot tub. The exercise room had 2 treadmills, nice free weights, 2 ellipticals along with 2 televisions. The contential breakfast was the ususal, cereal, fruit, yogurt, a variety of juices was available along with some hot items (bacon, french toast and cinnamon rolls). 
+The rooms were nicely decorated also with big comfortable beds along with soft or firm pillow to choose from along with an extra blanket at the foot of each bed if needed. Free wireless internet is also available which is a nice plus. There was an easy chair that was big, comfortable along with a footrest and a little side table. The only problem I had with the bathroom was that when you turned on the light the fan also came on. Rather bothersome in the middle of the night. The hotel is also adjacent to Fort Worth Spinks Airport, a small...I am a member of their Priority Club and was looking for a place for 2 nights. This was one of the options when wanting to use my points so I thought why not. It's only approx. 15 min. south of FW off of I-35. The hotel was very easy to reach and a great area. There is a Chili's within walking distance. Several options for shopping and eating are within 5minutues of the hotel by car. The lobby was very nicely decorated with big plush chairs, an added plus was a indoor pool and hot tub. The exercise room had 2 treadmills, nice free weights, 2 ellipticals along with 2 televisions. The contential breakfast was the ususal, cereal, fruit, yogurt, a variety of juices was available along with some hot items (bacon, french toast and cinnamon rolls). The rooms were nicely decorated also with big comfortable beds along with soft or firm pillow to choose from along with an extra blanket at the foot of each bed if needed. Free wireless internet is also available which is a nice plus. There was an easy chair that was big, comfortable along with a footrest and a little side table. The only problem I had with the bathroom was that when you turned on the light the fan also came on. Rather bothersome in the middle of the night. The hotel is also adjacent to Fort Worth Spinks Airport, a small municipal airport, which would also be nice to fly into and get a room here. All in all, we definitely enjoyed our stay here and plan to return the next time we need a room in the metroplex. The only "bad experience" I ran into was not  the fault of the hotel but of the guests. One morning there were several girls (10-12 years old)having breakfast unsupervised and once the bacon was brought out they grabbed handfuls of it. These were also the same girls that ran amock in the pool area and tossed the pool towels into the pool. After that you needed to obtain your pool towel from the front desk.More</t>
   </si>
 </sst>
 </file>
@@ -1570,122 +2395,106 @@
       <c r="A2" t="n">
         <v>54323</v>
       </c>
-      <c r="B2" t="n">
-        <v>155030</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
       <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54323</v>
       </c>
-      <c r="B3" t="n">
-        <v>155031</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1693,62 +2502,56 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54323</v>
       </c>
-      <c r="B4" t="n">
-        <v>155032</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
       <c r="O4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
@@ -1760,54 +2563,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54323</v>
       </c>
-      <c r="B5" t="n">
-        <v>155033</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" t="s">
         <v>70</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1827,64 +2626,62 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>54323</v>
       </c>
-      <c r="B6" t="n">
-        <v>155034</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1892,59 +2689,55 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>54323</v>
       </c>
-      <c r="B7" t="n">
-        <v>155035</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
@@ -1954,65 +2747,55 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>92</v>
-      </c>
-      <c r="X7" t="s">
-        <v>93</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>54323</v>
       </c>
-      <c r="B8" t="n">
-        <v>155036</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="n">
         <v>5</v>
       </c>
@@ -2026,66 +2809,62 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54323</v>
       </c>
-      <c r="B9" t="n">
-        <v>155037</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
       <c r="S9" t="n">
         <v>5</v>
       </c>
@@ -2097,60 +2876,56 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54323</v>
       </c>
-      <c r="B10" t="n">
-        <v>155038</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2161,57 +2936,57 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>54323</v>
       </c>
-      <c r="B11" t="n">
-        <v>155039</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2223,131 +2998,113 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>54323</v>
       </c>
-      <c r="B12" t="n">
-        <v>15230</v>
-      </c>
-      <c r="C12" t="s">
-        <v>131</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
-      <c r="N12" t="s">
-        <v>137</v>
-      </c>
-      <c r="O12" t="s">
-        <v>138</v>
-      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="X12" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>54323</v>
       </c>
-      <c r="B13" t="n">
-        <v>155040</v>
-      </c>
-      <c r="C13" t="s">
-        <v>142</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2357,66 +3114,62 @@
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>54323</v>
       </c>
-      <c r="B14" t="n">
-        <v>155041</v>
-      </c>
-      <c r="C14" t="s">
-        <v>152</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2428,60 +3181,56 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="X14" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>54323</v>
       </c>
-      <c r="B15" t="n">
-        <v>19274</v>
-      </c>
-      <c r="C15" t="s">
-        <v>163</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2493,60 +3242,56 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="X15" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>54323</v>
       </c>
-      <c r="B16" t="n">
-        <v>155042</v>
-      </c>
-      <c r="C16" t="s">
-        <v>170</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2558,131 +3303,121 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="X16" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>54323</v>
       </c>
-      <c r="B17" t="n">
-        <v>6514</v>
-      </c>
-      <c r="C17" t="s">
-        <v>180</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="O17" t="s">
-        <v>159</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="X17" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="Y17" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>54323</v>
       </c>
-      <c r="B18" t="n">
-        <v>155043</v>
-      </c>
-      <c r="C18" t="s">
-        <v>190</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2694,69 +3429,65 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="X18" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="Y18" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>54323</v>
       </c>
-      <c r="B19" t="n">
-        <v>155044</v>
-      </c>
-      <c r="C19" t="s">
-        <v>200</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>4</v>
@@ -2765,303 +3496,267 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="X19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Y19" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>54323</v>
       </c>
-      <c r="B20" t="n">
-        <v>63838</v>
-      </c>
-      <c r="C20" t="s">
-        <v>207</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s">
-        <v>159</v>
-      </c>
-      <c r="P20" t="n">
+        <v>58</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
         <v>3</v>
       </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="X20" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Y20" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>54323</v>
       </c>
-      <c r="B21" t="n">
-        <v>155045</v>
-      </c>
-      <c r="C21" t="s">
-        <v>215</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s">
-        <v>159</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="X21" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="Y21" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>54323</v>
       </c>
-      <c r="B22" t="n">
-        <v>11327</v>
-      </c>
-      <c r="C22" t="s">
-        <v>225</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
       <c r="R22" t="n">
         <v>4</v>
       </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="X22" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="Y22" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>54323</v>
       </c>
-      <c r="B23" t="n">
-        <v>155044</v>
-      </c>
-      <c r="C23" t="s">
-        <v>215</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s">
-        <v>68</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="X23" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="Y23" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
@@ -3074,254 +3769,226 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="J24" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s">
+        <v>227</v>
+      </c>
       <c r="Y24" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>54323</v>
       </c>
-      <c r="B25" t="n">
-        <v>155046</v>
-      </c>
-      <c r="C25" t="s">
-        <v>250</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="J25" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="K25" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>3</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="X25" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="Y25" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>54323</v>
       </c>
-      <c r="B26" t="n">
-        <v>155047</v>
-      </c>
-      <c r="C26" t="s">
-        <v>259</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="J26" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="O26" t="s">
-        <v>159</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
         <v>5</v>
       </c>
       <c r="R26" t="n">
         <v>5</v>
       </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>234</v>
+      </c>
+      <c r="X26" t="s">
+        <v>235</v>
+      </c>
       <c r="Y26" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>54323</v>
       </c>
-      <c r="B27" t="n">
-        <v>155048</v>
-      </c>
-      <c r="C27" t="s">
-        <v>266</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="J27" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="K27" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3330,7 +3997,7 @@
         <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3345,138 +4012,124 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>54323</v>
       </c>
-      <c r="B28" t="n">
-        <v>155049</v>
-      </c>
-      <c r="C28" t="s">
-        <v>273</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="J28" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>253</v>
+      </c>
+      <c r="X28" t="s">
+        <v>254</v>
+      </c>
       <c r="Y28" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>54323</v>
       </c>
-      <c r="B29" t="n">
-        <v>155050</v>
-      </c>
-      <c r="C29" t="s">
-        <v>280</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="J29" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="K29" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
         <v>5</v>
       </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3485,534 +4138,3024 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="X29" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="Y29" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>54323</v>
       </c>
-      <c r="B30" t="n">
-        <v>155051</v>
-      </c>
-      <c r="C30" t="s">
-        <v>290</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="J30" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="P30" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="X30" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="Y30" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>54323</v>
       </c>
-      <c r="B31" t="n">
-        <v>155052</v>
-      </c>
-      <c r="C31" t="s">
-        <v>298</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="J31" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="K31" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>277</v>
+      </c>
+      <c r="O31" t="s">
+        <v>58</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>3</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>304</v>
-      </c>
-      <c r="X31" t="s">
-        <v>305</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>54323</v>
       </c>
-      <c r="B32" t="n">
-        <v>155053</v>
-      </c>
-      <c r="C32" t="s">
-        <v>307</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="J32" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s">
-        <v>68</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="X32" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="Y32" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>54323</v>
       </c>
-      <c r="B33" t="n">
-        <v>155054</v>
-      </c>
-      <c r="C33" t="s">
-        <v>317</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="J33" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="K33" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
         <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="X33" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="Y33" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>54323</v>
       </c>
-      <c r="B34" t="n">
-        <v>155055</v>
-      </c>
-      <c r="C34" t="s">
-        <v>324</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="J34" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="K34" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="X34" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="Y34" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>54323</v>
       </c>
-      <c r="B35" t="n">
-        <v>10317</v>
-      </c>
-      <c r="C35" t="s">
-        <v>334</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="J35" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="K35" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="O35" t="s">
-        <v>68</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="X35" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="Y35" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>54323</v>
       </c>
-      <c r="B36" t="n">
-        <v>90279</v>
-      </c>
-      <c r="C36" t="s">
-        <v>342</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>315</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>316</v>
+      </c>
+      <c r="J36" t="s">
+        <v>317</v>
+      </c>
+      <c r="K36" t="s">
+        <v>318</v>
+      </c>
+      <c r="L36" t="s">
+        <v>319</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>311</v>
+      </c>
+      <c r="O36" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>312</v>
+      </c>
+      <c r="X36" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>322</v>
+      </c>
+      <c r="J37" t="s">
+        <v>323</v>
+      </c>
+      <c r="K37" t="s">
+        <v>324</v>
+      </c>
+      <c r="L37" t="s">
+        <v>325</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>326</v>
+      </c>
+      <c r="O37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>327</v>
+      </c>
+      <c r="X37" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>330</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>331</v>
+      </c>
+      <c r="J38" t="s">
+        <v>332</v>
+      </c>
+      <c r="K38" t="s">
+        <v>333</v>
+      </c>
+      <c r="L38" t="s">
+        <v>334</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>335</v>
+      </c>
+      <c r="O38" t="s">
+        <v>132</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>336</v>
+      </c>
+      <c r="X38" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>340</v>
+      </c>
+      <c r="J39" t="s">
+        <v>341</v>
+      </c>
+      <c r="K39" t="s">
+        <v>342</v>
+      </c>
+      <c r="L39" t="s">
+        <v>343</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>344</v>
+      </c>
+      <c r="O39" t="s">
+        <v>58</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>345</v>
+      </c>
+      <c r="X39" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>348</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>349</v>
+      </c>
+      <c r="J40" t="s">
+        <v>350</v>
+      </c>
+      <c r="K40" t="s">
+        <v>351</v>
+      </c>
+      <c r="L40" t="s">
+        <v>352</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>336</v>
+      </c>
+      <c r="X40" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>354</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>355</v>
+      </c>
+      <c r="J41" t="s">
+        <v>356</v>
+      </c>
+      <c r="K41" t="s">
+        <v>357</v>
+      </c>
+      <c r="L41" t="s">
+        <v>358</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>359</v>
+      </c>
+      <c r="O41" t="s">
+        <v>132</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>336</v>
+      </c>
+      <c r="X41" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>361</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>362</v>
+      </c>
+      <c r="J42" t="s">
+        <v>363</v>
+      </c>
+      <c r="K42" t="s">
+        <v>364</v>
+      </c>
+      <c r="L42" t="s">
+        <v>365</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>366</v>
+      </c>
+      <c r="O42" t="s">
+        <v>132</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>367</v>
+      </c>
+      <c r="X42" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>370</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>371</v>
+      </c>
+      <c r="J43" t="s">
+        <v>372</v>
+      </c>
+      <c r="K43" t="s">
+        <v>373</v>
+      </c>
+      <c r="L43" t="s">
+        <v>374</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>375</v>
+      </c>
+      <c r="X43" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>379</v>
+      </c>
+      <c r="J44" t="s">
+        <v>380</v>
+      </c>
+      <c r="K44" t="s">
+        <v>381</v>
+      </c>
+      <c r="L44" t="s">
+        <v>382</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>383</v>
+      </c>
+      <c r="O44" t="s">
+        <v>70</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>384</v>
+      </c>
+      <c r="X44" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>388</v>
+      </c>
+      <c r="J45" t="s">
+        <v>389</v>
+      </c>
+      <c r="K45" t="s">
+        <v>390</v>
+      </c>
+      <c r="L45" t="s">
+        <v>391</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>383</v>
+      </c>
+      <c r="O45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>384</v>
+      </c>
+      <c r="X45" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
         <v>45</v>
       </c>
-      <c r="F36" t="s">
-        <v>343</v>
-      </c>
-      <c r="G36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>393</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>394</v>
+      </c>
+      <c r="J46" t="s">
+        <v>395</v>
+      </c>
+      <c r="K46" t="s">
+        <v>396</v>
+      </c>
+      <c r="L46" t="s">
+        <v>397</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>398</v>
+      </c>
+      <c r="O46" t="s">
+        <v>399</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>400</v>
+      </c>
+      <c r="X46" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>403</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>404</v>
+      </c>
+      <c r="J47" t="s">
+        <v>405</v>
+      </c>
+      <c r="K47" t="s">
+        <v>406</v>
+      </c>
+      <c r="L47" t="s">
+        <v>407</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>408</v>
+      </c>
+      <c r="O47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>409</v>
+      </c>
+      <c r="X47" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>412</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>413</v>
+      </c>
+      <c r="J48" t="s">
+        <v>414</v>
+      </c>
+      <c r="K48" t="s">
+        <v>415</v>
+      </c>
+      <c r="L48" t="s">
+        <v>416</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>417</v>
+      </c>
+      <c r="O48" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>409</v>
+      </c>
+      <c r="X48" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
         <v>48</v>
       </c>
-      <c r="I36" t="s">
-        <v>344</v>
-      </c>
-      <c r="J36" t="s">
-        <v>345</v>
-      </c>
-      <c r="K36" t="s">
-        <v>346</v>
-      </c>
-      <c r="L36" t="s">
-        <v>347</v>
-      </c>
-      <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>348</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>419</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>420</v>
+      </c>
+      <c r="J49" t="s">
+        <v>421</v>
+      </c>
+      <c r="K49" t="s">
+        <v>422</v>
+      </c>
+      <c r="L49" t="s">
+        <v>423</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>424</v>
+      </c>
+      <c r="O49" t="s">
+        <v>70</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>425</v>
+      </c>
+      <c r="X49" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>428</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>429</v>
+      </c>
+      <c r="J50" t="s">
+        <v>430</v>
+      </c>
+      <c r="K50" t="s">
+        <v>431</v>
+      </c>
+      <c r="L50" t="s">
+        <v>432</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>433</v>
+      </c>
+      <c r="O50" t="s">
+        <v>70</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>434</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>435</v>
+      </c>
+      <c r="J51" t="s">
+        <v>436</v>
+      </c>
+      <c r="K51" t="s">
+        <v>437</v>
+      </c>
+      <c r="L51" t="s">
+        <v>438</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>433</v>
+      </c>
+      <c r="O51" t="s">
+        <v>70</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>439</v>
+      </c>
+      <c r="X51" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>442</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>443</v>
+      </c>
+      <c r="J52" t="s">
+        <v>444</v>
+      </c>
+      <c r="K52" t="s">
+        <v>445</v>
+      </c>
+      <c r="L52" t="s">
+        <v>446</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>447</v>
+      </c>
+      <c r="O52" t="s">
+        <v>132</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>448</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>449</v>
+      </c>
+      <c r="J53" t="s">
+        <v>450</v>
+      </c>
+      <c r="K53" t="s">
+        <v>451</v>
+      </c>
+      <c r="L53" t="s">
+        <v>452</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>453</v>
+      </c>
+      <c r="O53" t="s">
+        <v>58</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>454</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>455</v>
+      </c>
+      <c r="J54" t="s">
+        <v>456</v>
+      </c>
+      <c r="K54" t="s">
+        <v>457</v>
+      </c>
+      <c r="L54" t="s">
+        <v>458</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>459</v>
+      </c>
+      <c r="O54" t="s">
+        <v>70</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
         <v>54</v>
       </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
-      <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="s">
-        <v>287</v>
-      </c>
-      <c r="X36" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>349</v>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>460</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>461</v>
+      </c>
+      <c r="J55" t="s">
+        <v>462</v>
+      </c>
+      <c r="K55" t="s">
+        <v>463</v>
+      </c>
+      <c r="L55" t="s">
+        <v>464</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>465</v>
+      </c>
+      <c r="O55" t="s">
+        <v>58</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>466</v>
+      </c>
+      <c r="X55" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>469</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>470</v>
+      </c>
+      <c r="J56" t="s">
+        <v>471</v>
+      </c>
+      <c r="K56" t="s">
+        <v>472</v>
+      </c>
+      <c r="L56" t="s">
+        <v>473</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>474</v>
+      </c>
+      <c r="O56" t="s">
+        <v>132</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>466</v>
+      </c>
+      <c r="X56" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>476</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>477</v>
+      </c>
+      <c r="J57" t="s">
+        <v>478</v>
+      </c>
+      <c r="K57" t="s">
+        <v>479</v>
+      </c>
+      <c r="L57" t="s">
+        <v>480</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>481</v>
+      </c>
+      <c r="X57" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>484</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>485</v>
+      </c>
+      <c r="J58" t="s">
+        <v>486</v>
+      </c>
+      <c r="K58" t="s">
+        <v>487</v>
+      </c>
+      <c r="L58" t="s">
+        <v>488</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>489</v>
+      </c>
+      <c r="O58" t="s">
+        <v>70</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>490</v>
+      </c>
+      <c r="X58" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>493</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>494</v>
+      </c>
+      <c r="J59" t="s">
+        <v>495</v>
+      </c>
+      <c r="K59" t="s">
+        <v>496</v>
+      </c>
+      <c r="L59" t="s">
+        <v>497</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>453</v>
+      </c>
+      <c r="O59" t="s">
+        <v>58</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>490</v>
+      </c>
+      <c r="X59" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>499</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>500</v>
+      </c>
+      <c r="J60" t="s">
+        <v>501</v>
+      </c>
+      <c r="K60" t="s">
+        <v>502</v>
+      </c>
+      <c r="L60" t="s">
+        <v>503</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>504</v>
+      </c>
+      <c r="O60" t="s">
+        <v>58</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>505</v>
+      </c>
+      <c r="X60" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>508</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>509</v>
+      </c>
+      <c r="J61" t="s">
+        <v>510</v>
+      </c>
+      <c r="K61" t="s">
+        <v>511</v>
+      </c>
+      <c r="L61" t="s">
+        <v>512</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>513</v>
+      </c>
+      <c r="O61" t="s">
+        <v>70</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>505</v>
+      </c>
+      <c r="X61" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>515</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>516</v>
+      </c>
+      <c r="J62" t="s">
+        <v>517</v>
+      </c>
+      <c r="K62" t="s">
+        <v>518</v>
+      </c>
+      <c r="L62" t="s">
+        <v>519</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>520</v>
+      </c>
+      <c r="O62" t="s">
+        <v>58</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>466</v>
+      </c>
+      <c r="X62" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>522</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>523</v>
+      </c>
+      <c r="J63" t="s">
+        <v>524</v>
+      </c>
+      <c r="K63" t="s">
+        <v>525</v>
+      </c>
+      <c r="L63" t="s">
+        <v>526</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>527</v>
+      </c>
+      <c r="O63" t="s">
+        <v>70</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>528</v>
+      </c>
+      <c r="X63" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>531</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>532</v>
+      </c>
+      <c r="J64" t="s">
+        <v>533</v>
+      </c>
+      <c r="K64" t="s">
+        <v>534</v>
+      </c>
+      <c r="L64" t="s">
+        <v>535</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>536</v>
+      </c>
+      <c r="O64" t="s">
+        <v>132</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>537</v>
+      </c>
+      <c r="X64" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>540</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>541</v>
+      </c>
+      <c r="J65" t="s">
+        <v>542</v>
+      </c>
+      <c r="K65" t="s">
+        <v>543</v>
+      </c>
+      <c r="L65" t="s">
+        <v>544</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>545</v>
+      </c>
+      <c r="O65" t="s">
+        <v>58</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>546</v>
+      </c>
+      <c r="X65" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>549</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>550</v>
+      </c>
+      <c r="J66" t="s">
+        <v>551</v>
+      </c>
+      <c r="K66" t="s">
+        <v>552</v>
+      </c>
+      <c r="L66" t="s">
+        <v>553</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>545</v>
+      </c>
+      <c r="O66" t="s">
+        <v>58</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>554</v>
+      </c>
+      <c r="X66" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>557</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>558</v>
+      </c>
+      <c r="J67" t="s">
+        <v>559</v>
+      </c>
+      <c r="K67" t="s">
+        <v>560</v>
+      </c>
+      <c r="L67" t="s">
+        <v>561</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>562</v>
+      </c>
+      <c r="O67" t="s">
+        <v>58</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>563</v>
+      </c>
+      <c r="X67" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>566</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>567</v>
+      </c>
+      <c r="J68" t="s">
+        <v>568</v>
+      </c>
+      <c r="K68" t="s">
+        <v>569</v>
+      </c>
+      <c r="L68" t="s">
+        <v>570</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>571</v>
+      </c>
+      <c r="X68" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>574</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>575</v>
+      </c>
+      <c r="J69" t="s">
+        <v>576</v>
+      </c>
+      <c r="K69" t="s">
+        <v>577</v>
+      </c>
+      <c r="L69" t="s">
+        <v>578</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>579</v>
+      </c>
+      <c r="O69" t="s">
+        <v>132</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>571</v>
+      </c>
+      <c r="X69" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>581</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>582</v>
+      </c>
+      <c r="J70" t="s">
+        <v>583</v>
+      </c>
+      <c r="K70" t="s">
+        <v>584</v>
+      </c>
+      <c r="L70" t="s">
+        <v>585</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>586</v>
+      </c>
+      <c r="O70" t="s">
+        <v>70</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>588</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>589</v>
+      </c>
+      <c r="J71" t="s">
+        <v>590</v>
+      </c>
+      <c r="K71" t="s">
+        <v>591</v>
+      </c>
+      <c r="L71" t="s">
+        <v>592</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>593</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>594</v>
+      </c>
+      <c r="J72" t="s">
+        <v>595</v>
+      </c>
+      <c r="K72" t="s">
+        <v>596</v>
+      </c>
+      <c r="L72" t="s">
+        <v>597</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>598</v>
+      </c>
+      <c r="O72" t="s">
+        <v>70</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>600</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>601</v>
+      </c>
+      <c r="J73" t="s">
+        <v>602</v>
+      </c>
+      <c r="K73" t="s">
+        <v>603</v>
+      </c>
+      <c r="L73" t="s">
+        <v>604</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>605</v>
+      </c>
+      <c r="O73" t="s">
+        <v>70</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>54323</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>607</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>608</v>
+      </c>
+      <c r="J74" t="s">
+        <v>609</v>
+      </c>
+      <c r="K74" t="s">
+        <v>610</v>
+      </c>
+      <c r="L74" t="s">
+        <v>611</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>598</v>
+      </c>
+      <c r="O74" t="s">
+        <v>70</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
